--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B0218-1B12-4EAF-A2CF-C8E6FAE9A0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76845C51-DC90-4EF7-AD65-5E79A121CFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="2340" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t>User_Input</t>
-  </si>
-  <si>
-    <t>Bot_Response</t>
-  </si>
-  <si>
     <t>hello</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>appraisal report</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Response</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,66 +404,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76845C51-DC90-4EF7-AD65-5E79A121CFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073F1A7-4D4C-427E-B15D-37D51219B847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2340" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>hello</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Goodbye! Have a great day!</t>
   </si>
   <si>
-    <t>who are you</t>
-  </si>
-  <si>
-    <t>I'm a financial chatbot built using Flask!</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -60,26 +54,730 @@
     <t>hi</t>
   </si>
   <si>
-    <t>what is sparrow</t>
-  </si>
-  <si>
-    <t>appraisal report</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
     <t>Response</t>
+  </si>
+  <si>
+    <t>how to change password</t>
+  </si>
+  <si>
+    <t>reset password</t>
+  </si>
+  <si>
+    <t>sparrow password reset</t>
+  </si>
+  <si>
+    <t>password reset</t>
+  </si>
+  <si>
+    <t>where to log in</t>
+  </si>
+  <si>
+    <t>log in</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>what is SPARROW</t>
+  </si>
+  <si>
+    <t>what is APAR</t>
+  </si>
+  <si>
+    <t>APAR</t>
+  </si>
+  <si>
+    <t>what is NRC</t>
+  </si>
+  <si>
+    <t>NRC</t>
+  </si>
+  <si>
+    <t>how to create work flow</t>
+  </si>
+  <si>
+    <t>how to create workflow</t>
+  </si>
+  <si>
+    <t>work flow</t>
+  </si>
+  <si>
+    <t>workflow</t>
+  </si>
+  <si>
+    <t>workflow creation</t>
+  </si>
+  <si>
+    <t>work flow creation</t>
+  </si>
+  <si>
+    <t>What is form type</t>
+  </si>
+  <si>
+    <t>Form Type</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
+    <t>Basic Information form</t>
+  </si>
+  <si>
+    <t>how to write self appraisal</t>
+  </si>
+  <si>
+    <t>self appraisal</t>
+  </si>
+  <si>
+    <t>What is self appraisal</t>
+  </si>
+  <si>
+    <t>When to submit APAR</t>
+  </si>
+  <si>
+    <t>Time line to submit APAR</t>
+  </si>
+  <si>
+    <t>PAR Manager responsibility</t>
+  </si>
+  <si>
+    <t>PAR Manager duties</t>
+  </si>
+  <si>
+    <t>PAR Manager duty</t>
+  </si>
+  <si>
+    <t>What PAR Manager to do</t>
+  </si>
+  <si>
+    <t>How to raise NRC</t>
+  </si>
+  <si>
+    <t>create NRC</t>
+  </si>
+  <si>
+    <t>How to create NRC</t>
+  </si>
+  <si>
+    <t>Initiate NRC</t>
+  </si>
+  <si>
+    <t>raise NRC</t>
+  </si>
+  <si>
+    <t>when to raise NRC</t>
+  </si>
+  <si>
+    <t>Who is Reporting Officer</t>
+  </si>
+  <si>
+    <t>Reporting Officer</t>
+  </si>
+  <si>
+    <t>time limits</t>
+  </si>
+  <si>
+    <t>time limits for APAR</t>
+  </si>
+  <si>
+    <t>Non submission of APAR</t>
+  </si>
+  <si>
+    <t>What will happen if APAR not submitted</t>
+  </si>
+  <si>
+    <t>APAR not submitted</t>
+  </si>
+  <si>
+    <t>Who is Reviewing Officer</t>
+  </si>
+  <si>
+    <t>Reviewing Officer</t>
+  </si>
+  <si>
+    <t>When Review of APAR not required</t>
+  </si>
+  <si>
+    <t>No review</t>
+  </si>
+  <si>
+    <t>No Review of apar</t>
+  </si>
+  <si>
+    <t>Apar need not be reviewed</t>
+  </si>
+  <si>
+    <t>who is NRC competent authority</t>
+  </si>
+  <si>
+    <t>Log in in saccess.nic.in  with sparrow id, password and OTP</t>
+  </si>
+  <si>
+    <t>Smart Performance Appraisal Report Recording Online Window</t>
+  </si>
+  <si>
+    <t>Annual Performance Appraisal Report</t>
+  </si>
+  <si>
+    <t>No Report Certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form is selected while initiating APAR work flow basing on the duties assigned i.e., Faceless or .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Basic Information form is to be filled by ORU manually with self signature and to be attested by DDO and to be handed over to concerned PAR Manager for filling the details in Basic Information page of APAR.  PAR Manager fills the Basic Information and e-signs in sparrow portal.  Then the APAR is automatically shifted to ORU console for Self Appraisal. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After your PAR Manager e-signs your PAR, log in to SPARROW, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go to "Inbox" click on "My PAR".  You will be directed to self appraisal page, write your ‘self appraisal’, click on "Send to Reporting Officer".</t>
+    </r>
+  </si>
+  <si>
+    <t>Before 15th April</t>
+  </si>
+  <si>
+    <t>Your supervisory officer is your Reporting Officer.  For initiating APAR you have to work for more than 90 days under one Reporting Officer.  Whenever the reporting officer is changed due to ORU transfer, Reporting Officer transfer or ORU retirement or Reporting officer retirement the PAR has to be initiated for that period  (if the period is more than 90 days).  The APAR to be initiated within 15 days of such event i.e., the retirement/transfer out of Reporting Officer.</t>
+  </si>
+  <si>
+    <t>The APAR is an important document for the future promotion/ assessing the conduct of the officer. The APAR has to be initiated and submitted within timelines. Failure in not creating self work flow/submitting self appraisal within the time lines, an explanation for not having performed the public duty of writing the APAR within the due date shall be called for and a written warning shall be issued to the officer by competent authority and same will be placed in APAR dossier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC-Hyderabad </t>
+  </si>
+  <si>
+    <t>how to log in SPARROW</t>
+  </si>
+  <si>
+    <t>mobile number is the one registered with SPARROW ID</t>
+  </si>
+  <si>
+    <t>log into sparrow</t>
+  </si>
+  <si>
+    <r>
+      <t>The Supervisory officer of your Reporting Officer is the reviewing officer.  If the reviewing officer is changed, &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>APAR need not be initiated as the APAR is Reporting Officer based only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.&lt;/b&gt;  If there are multiple reviewing officers available for the period of APAR, the reviewing officer who held the office for more than 90 days has only to be selected.  If there are multiple reviewing officers available for the period of APAR, and each reviewing officer held the office for more than 90 days, then the recent reviewing officer has to be selected for reviewing the APAR for that period.  If there are multiple reviewing officers, and no reviewing officer held the office for more than 90 days, then the APAR need not be reviewed and you have to select “No Service”.  12345TEMP from dropdown menu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For resetting SPARROW password use this link: &lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://passapp.email.gov.in/passapp/"&gt;https://passapp.email.gov.in/passapp/&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>how to login</t>
+  </si>
+  <si>
+    <r>
+      <t>First log in in &lt;a href="https://saccess.nic.in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;https://saccess.nic.in&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  with sparrow id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again log in in this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened select and click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Income Tax (Gztd)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Income Tax (Non-Gztd)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IRS (IT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as applicable </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>After log in in to Parichay from the left side menu panel select "Workflow", and then "Create/Update Workflow".  And then search by employee name or Employee ID.  Click on "Create Workflow".  Select correct Assessment period.  Select APAR/NRC as applicable. Select correct form type.  click “Action” button and then "Continue".  Here select correct reporting authority by search  option on the right side.  New window for search will open.  In the search window  “service” to be chosen as  INCOME TAX (GZTD) if your reporting officer is Group B Gazetted officer and " INCOME TAX REVENUE SERVICE (IT)" if your reporting officer is IRS officer . Give input as name or employee code and press  “search”. From the search result select your reporting officer. Choose reviewing officer in the same method.  Click “save” (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do not press “save and next”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) .  You will see comment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Workflow has been created successfully"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a new window. </t>
+    </r>
+  </si>
+  <si>
+    <t>How to initiate NRC</t>
+  </si>
+  <si>
+    <t>Log in &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with sparrow id, password and OTP and then  log in SPARROW/Parichay with same sparrow id, password and newly generated OTP.  Select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  Select “workflow”  select “create/update” search by employee name,  click on “create workflow”.  Select NRC in "Status" tab .  In the “Status” column, instead of APAR, NRC has to be selected for creating NRC request.  After creating NRC workflow, Reporting Period from, Reporting Period to, Reporting Officer Name Reporting Officer Designation, have to be filled.  In the remarks column,  correct reason for requesting NRC is to be selected.  In the comments box, a descriptive reason for NRC is to be mentioned along with the office in which posted.   In the Reference upload,  the CTC copy/transfer order/leave application for more than 15 days etc of self or reporting officer where ever applicable are to be uploaded in PDF format (less than 3 MB size). Click on “Save as Draft”.  Click “send to Officer Reported Upon” Sign digitally by DSC or e-Hastakshar</t>
+  </si>
+  <si>
+    <r>
+      <t>Log in &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">with sparrow id, password and OTP and then  log in SPARROW/Parichay with same sparrow id, password and newly generated OTP. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Select “workflow” </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select “create/update”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">search by employee name, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click on “create workflow”.  Then</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">either click “copy workflow” or “create workflow” for the ORU.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Press “action” button, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select “Generate PAR” from drop down menu.   Basic Information window will be opened.  Choose correct form from top right window of Basic Information form.  Fill the Basic information as submitted by ORU manually. Fill year of recruitment, present grade, present post and other columns correctly. Click on “Save as Draft”.  Click “send to Officer Reported Upon” Sign digitally by DSC or e-Hastakshar</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The officers/officials working in HQrs/Admin of CIT/DIT/PCIT/PDIT/CCIT/PCCIT will be treated as complete after reporting by concerned CIT/PCIT/CCIT/PCCIT and the comments of such reporting officer is treated as final and no review is required.  Reference: HRD CBDT letter HRD/PMD/APAR/403/5/2015-16/9345 dt 07 Mar 2016. &lt;/br&gt;&lt;/br&gt;
+2.  In the cadres of Sr Private Secretary, Private Secretary and Staff Car Driver the APAR reported by the reporting officer is final and need not be reviewed.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Creation of APAR and submission of Self Appraisal: 30</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> April for the previous year.&lt;/br&gt;&lt;/br&gt;
+2.      Whenever part APAR is to be initiated due to self transfer / retirement/transfer of Reporting Officer, the part APAR is to be initiated within 15 days from the date of transfer/ retirement of reporting officer.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If the officer worked under any Reporting Officer for a period less than 90 days due to&lt;br&gt; 1. Transfer of Officer Reported Upon (ORU). &lt;br&gt;&lt;br&gt;2. Transfer of Reporting Officer &lt;br&gt;&lt;br&gt;3. Retirement of Reporting Officer/ORU &lt;br&gt;&lt;br&gt;4. Period of leave availed/training for more than 15 days and when such leave/training period is deducted from the period worked under Reporting Officer becomes less than 90 days&lt;br&gt;&lt;br&gt;  5. Period of leave availed by Reporting Officer more than 15 days and such leave period is to deducted from the entire period worked under reporting officer becomes less than 90 days. </t>
+  </si>
+  <si>
+    <t>sparrow mobile number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,16 +800,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,27 +1102,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,15 +1130,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -434,7 +1146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -442,31 +1154,474 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="237" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="237" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVN MURTHY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073F1A7-4D4C-427E-B15D-37D51219B847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="194">
   <si>
     <t>hello</t>
   </si>
@@ -211,9 +210,6 @@
   </si>
   <si>
     <t>who is NRC competent authority</t>
-  </si>
-  <si>
-    <t>Log in in saccess.nic.in  with sparrow id, password and OTP</t>
   </si>
   <si>
     <t>Smart Performance Appraisal Report Recording Online Window</t>
@@ -266,9 +262,6 @@
     <t>The APAR is an important document for the future promotion/ assessing the conduct of the officer. The APAR has to be initiated and submitted within timelines. Failure in not creating self work flow/submitting self appraisal within the time lines, an explanation for not having performed the public duty of writing the APAR within the due date shall be called for and a written warning shall be issued to the officer by competent authority and same will be placed in APAR dossier.</t>
   </si>
   <si>
-    <t xml:space="preserve">PC-Hyderabad </t>
-  </si>
-  <si>
     <t>how to log in SPARROW</t>
   </si>
   <si>
@@ -709,13 +702,458 @@
   </si>
   <si>
     <t>sparrow mobile number</t>
+  </si>
+  <si>
+    <t>how to file apar</t>
+  </si>
+  <si>
+    <t>NRC competent Authority is the Primary Custodian.  While creating NRC, select PRAVALIKA KINTHADA)PC-HYDERABD)[_PRIMARY CUSTODIAN-CBDT-IT-AP&amp;TELANGANA] from search window.</t>
+  </si>
+  <si>
+    <t>NRC Competent Authority</t>
+  </si>
+  <si>
+    <t>Competent authority for NRC</t>
+  </si>
+  <si>
+    <t>Competent authority NRC</t>
+  </si>
+  <si>
+    <t>who is NRC CR Section</t>
+  </si>
+  <si>
+    <t>NRC CR Section is the Primary Custodian.  While creating NRC, NRC CR section by default the name as PRAVALIKA KINTHADA)PC-HYDERABD)[_PRIMARY CUSTODIAN-CBDT-IT-AP&amp;TELANGANA] appears.</t>
+  </si>
+  <si>
+    <t>NRC CR Section</t>
+  </si>
+  <si>
+    <t>CR Section NRC</t>
+  </si>
+  <si>
+    <t>Who has to fill apar in sparrow</t>
+  </si>
+  <si>
+    <t>Is it compulsary to fill apar</t>
+  </si>
+  <si>
+    <t>who have to fill apar</t>
+  </si>
+  <si>
+    <t>is it necessary to upload document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.  The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 mb maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register so on … which ever is applicable. </t>
+  </si>
+  <si>
+    <t>Upload document</t>
+  </si>
+  <si>
+    <t>Upload document necessary</t>
+  </si>
+  <si>
+    <t>Upload document compulsory</t>
+  </si>
+  <si>
+    <t>necessary documents tp be Uploaded</t>
+  </si>
+  <si>
+    <t>Comments to be put in NRC</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where Reporting officer transferred out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: “ I have worked as ITO/AO/PS in O/o      under the reporting officer Sri ……… Addl CIT, Range……..    , Hyderabad  from   date……. To……. date and the reporting officer was relieved on transfer on dt ………..  As the period under the reporting officer is less than 90 days, NRC for this period is requested”  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(please upload Transfer order/CTC copy in reference upload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where ORU transferred ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t: “ I have worked as ITO/AO/PS in O/o      under the reporting officer Sri ……… Addl CIT, Range ……, Hyderabad.  I have been transferred to O/o…………vide transfer order dt……………             and relived on date………………  As the period worked under the reporting officer is less than 90 days, NRC for this period is requested” (please upload transfer order/CTC copy in reference upload)
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where there are multiple reporting officers (in charge officers)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: “ I have worked as ITO/AO/PS in O/o ……………. under the reporting officers Sri ……… Addl CIT, Range ………….   , Hyderabad from ……..to……… , Sri ……… Addl CIT, Range……….    , Hyderabad from ……..to……… and  Sri ……… Addl CIT, Range       , Hyderabad from……………. to………….  As there are multiple reporting officers and the period worked under each officer is less than 90 days, NRC is requested.” (please upload all the CTC copies of reporting officers in reference upload). </t>
+    </r>
+  </si>
+  <si>
+    <t>Common comments in NRC</t>
+  </si>
+  <si>
+    <t>Model commnets in NRC</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Comments tamplet</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>These Guidelines have been prepared on the basis of extant instructions/letters issued by Department of Personnel &amp; Training (DoPT) and Directorate of Income-tax (Human Resource Development), CBDT. In case of any variance between these Guidelines and instructions/letters issued by DoPT/Directorate of Income-tax (Human Resource Development), the latter will prevail.</t>
+  </si>
+  <si>
+    <t>How to get email-ids for login into SPARROW portal</t>
+  </si>
+  <si>
+    <t>For obtaining NIC email-id, the basic details of officer should be sent through respective Pr.CCIT(CCA) office to HRD. Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 Email id Official (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
+  </si>
+  <si>
+    <t>How to get log in ID</t>
+  </si>
+  <si>
+    <t>Log in ID for SPARROW</t>
+  </si>
+  <si>
+    <t>New log in ID</t>
+  </si>
+  <si>
+    <t>Submission of self appraisal to reporting officer by officer to be reported upon</t>
+  </si>
+  <si>
+    <t>30th April</t>
+  </si>
+  <si>
+    <t>Last date for Submission of self appraisal</t>
+  </si>
+  <si>
+    <t>Submission of self appraisal</t>
+  </si>
+  <si>
+    <t>Time line for self appraisal</t>
+  </si>
+  <si>
+    <t>Submission of report by reporting officer to reviewing officer</t>
+  </si>
+  <si>
+    <t>30th June</t>
+  </si>
+  <si>
+    <t>Submission of report by reporting officer</t>
+  </si>
+  <si>
+    <t>Last date for reporting of apar</t>
+  </si>
+  <si>
+    <t>Time line for reporting officer</t>
+  </si>
+  <si>
+    <t>Report to be completed by Reviewing Officer and to be sent to Administration or CR Section/Cell or accepting authority, wherever provided.</t>
+  </si>
+  <si>
+    <t>31st July</t>
+  </si>
+  <si>
+    <t>Reporting by reviewing officer to be completed by</t>
+  </si>
+  <si>
+    <t>time line for reviewing officer</t>
+  </si>
+  <si>
+    <t>Last date for reviewing of apar</t>
+  </si>
+  <si>
+    <t>Disclosure to the officer reported upon</t>
+  </si>
+  <si>
+    <t>01st September</t>
+  </si>
+  <si>
+    <t>Disclosure to the ORU</t>
+  </si>
+  <si>
+    <t>Representation by ORU</t>
+  </si>
+  <si>
+    <t>15 days from the date of receipt of communication of APAR</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>Form for JAO</t>
+  </si>
+  <si>
+    <t>Form-1(a) (Deputy/Assistant Commissioner/ Income Tax Officers and equivalent) (Faceless Assessing officers/Jurisdictional Assessing Officers). 
+ Form-2(a)  (Joint/Additional Commissioner and equivalent)(Faceless Assessment Units/ Jurisdictional Assessment Units) 
+Form-4(a) (Principal Commissioner of Income Tax/ Commissioner of Income Tax) (Faceless Assessment Units/ Jurisdictional Assessment Units)</t>
+  </si>
+  <si>
+    <t>JAO form</t>
+  </si>
+  <si>
+    <t>Form for FAO</t>
+  </si>
+  <si>
+    <t>FAO form</t>
+  </si>
+  <si>
+    <t>Faceless form</t>
+  </si>
+  <si>
+    <t>Jurisdictional form</t>
+  </si>
+  <si>
+    <t>Form for other than assessing officers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form 1  (Deputy/Assistant Commissioner or Deputy/Assistant Director of Income Tax/ Income Tax Officer and equivalent) (Other than Assessing Officer)
+Form- 2 (Joint/Additional Commissioner or Joint/Additional Director of Income Tax and equivalent)(Non-Assessment)
+Form 4  (Principal Commissioner of Income Tax or Principal Director of Income Tax Commissioner of Income Tax or Director of Income Tax and equivalent posted in non-field formations including Directorates and ITAT) </t>
+  </si>
+  <si>
+    <t>form for non assessment</t>
+  </si>
+  <si>
+    <t>Non assessment form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form for Central </t>
+  </si>
+  <si>
+    <t>Form 1(b) (Deputy/Assistant Commissioner/ Income Tax Officers and equivalent) (Non-Faceless Assessing officers) (Central/IT/Others) 
+Form 2(b)  (Joint/Additional Commissioner and equivalent)(Non-Faceless Assessment Units- Central/ International Taxation/Others)</t>
+  </si>
+  <si>
+    <t>Form for IT</t>
+  </si>
+  <si>
+    <t>Form for Internationa Taxation</t>
+  </si>
+  <si>
+    <t>Form for other assessing officers</t>
+  </si>
+  <si>
+    <t>form for appeals</t>
+  </si>
+  <si>
+    <t>Form 3(a) (Commissioner of Income Tax (Appeal)(Faceless)) 
+Form 3(b)  (Commissioner of Income Tax (Appeal))</t>
+  </si>
+  <si>
+    <t>Form for PS</t>
+  </si>
+  <si>
+    <t>Form D Form type to be filled by Senior Private Secretaries, Private Secretaries and Stenographers Grade I, II, III and equivalent</t>
+  </si>
+  <si>
+    <t>Form for Senior PS</t>
+  </si>
+  <si>
+    <t>Form for Stenographer</t>
+  </si>
+  <si>
+    <t>Form for OS</t>
+  </si>
+  <si>
+    <t>Form B Form type to be filled by Administrative Officers, Office Superintendents and equivalent</t>
+  </si>
+  <si>
+    <t>Form for AO</t>
+  </si>
+  <si>
+    <t>Form for Administrative Officer</t>
+  </si>
+  <si>
+    <t>how to e sign</t>
+  </si>
+  <si>
+    <t>The competent authority can use DSC or Aadhar based e-hasthakshar</t>
+  </si>
+  <si>
+    <t>e sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unable to log in </t>
+  </si>
+  <si>
+    <t>authentication failed</t>
+  </si>
+  <si>
+    <t>showing error authentication failed</t>
+  </si>
+  <si>
+    <t>log in failed</t>
+  </si>
+  <si>
+    <t>Where to file IPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPR to be filed in SPARROW portal by log in to saccess.nic.in  with sparrow id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again log in in this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened select and clic on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.   On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
+  </si>
+  <si>
+    <t>IPR</t>
+  </si>
+  <si>
+    <t>The IPR i.e., Immovable Property Return has to be submitted by all officers upto the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable proverty held as on 01st January of that year.</t>
+  </si>
+  <si>
+    <t>When to file IPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it compulsary to fill IPR </t>
+  </si>
+  <si>
+    <t>Yes.  The IPR has to be filed by all officers upto the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable proverty held as on 01st January of that year.
+Rule 18(1)(ii) of the CCS (Conduct) Rules, 1964 states as under: 
+“(ii) Every Government servant belonging to any service or holding any post included in Group ‘A’ and Group ‘B’ shall submit an annual return in such form as may be prescribed by the Government in this regard giving full particulars regarding the immovable property inherited by him or owned or acquired by him or held by him on lease or mortgage either in his own name or in the name of any member of his family or in the name of any other person.” 
+Accordingly, all Group 'A' and Group 'B' Government servants are required to file Annual Immovable Property Return (IPR) of the previous year latest by 31st January of the following year. 
+Kind attention is also invited to DoPT OM No. 104/33/2024-A VD-IA dated 09.10.2024, which states that vigilance clearance shall be denied to an officer, if he/she fails to submit his/her annual immovable property return of the previous year by 31st January of the following year in the following cases: 
+i. Empanelment 
+ii. Ex- India study leave 
+iii. Any deputation for which clearance is necessary and extension there of 
+iv. Appointment to sensitive posts. 
+v. Assignments to training programmes except mandatory training 
+vi. Confirmation in service 
+vii. Retirement on VRS 
+viii. Post-retirement commercial employment 
+ix. Pre-mature repatriation (voluntary) from any deputation 
+Kind attention is also drawn to, the Central Vigilance Commission's Office Order No. 17/11/2020 dated 23.11.2020, circulated vide this Office letter F.No. P 329/Personnel/IPR/2020-21/754 dated 18.12.2020, mentioning that timely filing of Property Return by the officials of Ministries/Departments/Organizations is one of the mandatory requirement under CCS (Conduct) Rules and non-filing of Property Returns constitutes good and sufficient reasons for instituting disciplinary action against the delinquent officials. 
+Therefore, filing of IPR is very important for all Group-A and Group-B Government servants</t>
+  </si>
+  <si>
+    <t>Do I need to submit IPR copy</t>
+  </si>
+  <si>
+    <t>No.  You need not submit copy of the Immovable Property Return anywhere once submitted in SPARROW portal.</t>
+  </si>
+  <si>
+    <t>Where to submit copy of IPR</t>
+  </si>
+  <si>
+    <t>Who is the competent authority for IPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary custodian is the competent authority for Immovable Property Return </t>
+  </si>
+  <si>
+    <t>Immovable Property Return</t>
+  </si>
+  <si>
+    <t>When to file Immovable Property Return</t>
+  </si>
+  <si>
+    <t>Where to file Immovable Property Return</t>
+  </si>
+  <si>
+    <t>Is it compulsary to fill Immovable Property Return</t>
+  </si>
+  <si>
+    <t>Log in in &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPR to be filed in SPARROW portal by log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again log in in this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened select and clic on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.   On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset SPAROW password use this link: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href="https://passapp.email.gov.in/passapp/"&gt;https://passapp.email.gov.in/passapp/&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>ORU</t>
+  </si>
+  <si>
+    <t>Officer Reported Upon.  That is you.</t>
+  </si>
+  <si>
+    <t>Who is ORU</t>
+  </si>
+  <si>
+    <t>All the officicers and officials from the APAR year 2024-25 have to compulsorily fill APAR online in SPARROW portal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,6 +1220,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -804,7 +1264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -820,6 +1280,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1101,20 +1567,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1146,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1154,471 +1620,1161 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="52" spans="1:2" ht="239.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="53" spans="1:2" ht="239.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="237" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="237" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVN MURTHY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B89C3C2-C6A2-462C-BDCC-01E7C88C9B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9345"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="193">
   <si>
     <t>hello</t>
   </si>
@@ -1053,9 +1054,6 @@
   </si>
   <si>
     <t>Where to file IPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPR to be filed in SPARROW portal by log in to saccess.nic.in  with sparrow id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again log in in this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened select and clic on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.   On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
   </si>
   <si>
     <t>IPR</t>
@@ -1152,7 +1150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1567,20 +1565,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1588,7 +1586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1638,7 +1636,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1654,15 +1652,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1678,7 +1676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1686,7 +1684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,7 +1692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -1702,7 +1700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1708,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +1716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +1756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -1766,7 +1764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1774,7 +1772,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1798,7 +1796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1806,7 +1804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1814,7 +1812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1822,7 +1820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1830,7 +1828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1846,7 +1844,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1854,7 +1852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1862,7 +1860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1886,7 +1884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1902,7 +1900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1910,7 +1908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1918,7 +1916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -1934,7 +1932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,7 +1940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1950,7 +1948,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1964,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1974,7 +1972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1990,7 +1988,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="239.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="237" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1998,7 +1996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="239.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="237" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2022,7 +2020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2030,7 +2028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2038,7 +2036,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2046,7 +2044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2054,7 +2052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2070,7 +2068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -2086,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>61</v>
       </c>
@@ -2094,7 +2092,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>88</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>89</v>
       </c>
@@ -2110,7 +2108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>90</v>
       </c>
@@ -2118,7 +2116,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>91</v>
       </c>
@@ -2126,7 +2124,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>93</v>
       </c>
@@ -2134,7 +2132,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>94</v>
       </c>
@@ -2142,31 +2140,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>98</v>
       </c>
@@ -2174,7 +2172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>100</v>
       </c>
@@ -2182,7 +2180,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>101</v>
       </c>
@@ -2190,7 +2188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>102</v>
       </c>
@@ -2198,7 +2196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>103</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>104</v>
       </c>
@@ -2214,7 +2212,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>106</v>
       </c>
@@ -2222,7 +2220,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>107</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>108</v>
       </c>
@@ -2238,7 +2236,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>109</v>
       </c>
@@ -2246,7 +2244,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>110</v>
       </c>
@@ -2254,7 +2252,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>112</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>114</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>115</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>116</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>117</v>
       </c>
@@ -2294,7 +2292,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>119</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>120</v>
       </c>
@@ -2310,13 +2308,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>122</v>
       </c>
@@ -2324,7 +2322,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>124</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>125</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>126</v>
       </c>
@@ -2348,7 +2346,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>127</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>129</v>
       </c>
@@ -2364,7 +2362,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>130</v>
       </c>
@@ -2372,7 +2370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>131</v>
       </c>
@@ -2380,7 +2378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>132</v>
       </c>
@@ -2388,7 +2386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>134</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>135</v>
       </c>
@@ -2404,7 +2402,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>137</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>138</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>140</v>
       </c>
@@ -2428,7 +2426,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>141</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>142</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>143</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>144</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>145</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>147</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>148</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>149</v>
       </c>
@@ -2492,7 +2490,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>151</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>152</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>153</v>
       </c>
@@ -2516,7 +2514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>154</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>156</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -2540,7 +2538,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>159</v>
       </c>
@@ -2548,7 +2546,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>160</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>162</v>
       </c>
@@ -2564,7 +2562,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>163</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>164</v>
       </c>
@@ -2580,7 +2578,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>166</v>
       </c>
@@ -2588,191 +2586,191 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B132" s="6" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
+      <c r="B133" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
+      <c r="B134" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B134" s="6" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+      <c r="B135" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B135" s="6" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+      <c r="B136" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
+      <c r="B137" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B137" s="6" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+      <c r="B138" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+      <c r="B139" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
+      <c r="B140" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="B141" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B142" s="6" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="B143" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
     </row>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B89C3C2-C6A2-462C-BDCC-01E7C88C9B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE4D09F-1AB3-44EF-9521-A91277F53382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="194">
   <si>
     <t>hello</t>
   </si>
@@ -252,9 +252,6 @@
       </rPr>
       <t>go to "Inbox" click on "My PAR".  You will be directed to self appraisal page, write your ‘self appraisal’, click on "Send to Reporting Officer".</t>
     </r>
-  </si>
-  <si>
-    <t>Before 15th April</t>
   </si>
   <si>
     <t>Your supervisory officer is your Reporting Officer.  For initiating APAR you have to work for more than 90 days under one Reporting Officer.  Whenever the reporting officer is changed due to ORU transfer, Reporting Officer transfer or ORU retirement or Reporting officer retirement the PAR has to be initiated for that period  (if the period is more than 90 days).  The APAR to be initiated within 15 days of such event i.e., the retirement/transfer out of Reporting Officer.</t>
@@ -1145,6 +1142,12 @@
   </si>
   <si>
     <t>All the officicers and officials from the APAR year 2024-25 have to compulsorily fill APAR online in SPARROW portal.</t>
+  </si>
+  <si>
+    <t>Before 30th April</t>
+  </si>
+  <si>
+    <t>Time line for apar</t>
   </si>
 </sst>
 </file>
@@ -1566,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1623,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -1631,7 +1634,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1641,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -1649,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1657,31 +1660,31 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1689,15 +1692,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1705,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,10 +1761,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1769,7 +1772,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1777,7 +1780,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1785,7 +1788,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,7 +1796,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1801,7 +1804,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1809,7 +1812,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1873,7 +1876,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1881,44 +1884,44 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>80</v>
@@ -1926,701 +1929,701 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="237" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>83</v>
+      <c r="B52" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="237" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="237" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>70</v>
+      <c r="B54" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="B57" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>82</v>
+      <c r="B60" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="B127" s="6" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>187</v>
@@ -2628,103 +2631,107 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B143" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
+      <c r="B144" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
@@ -2773,6 +2780,10 @@
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE4D09F-1AB3-44EF-9521-A91277F53382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA8DA62-DC50-4C34-9BA6-3F654662E39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="196">
   <si>
     <t>hello</t>
   </si>
@@ -452,9 +452,6 @@
     <t>How to initiate NRC</t>
   </si>
   <si>
-    <t>Log in &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with sparrow id, password and OTP and then  log in SPARROW/Parichay with same sparrow id, password and newly generated OTP.  Select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  Select “workflow”  select “create/update” search by employee name,  click on “create workflow”.  Select NRC in "Status" tab .  In the “Status” column, instead of APAR, NRC has to be selected for creating NRC request.  After creating NRC workflow, Reporting Period from, Reporting Period to, Reporting Officer Name Reporting Officer Designation, have to be filled.  In the remarks column,  correct reason for requesting NRC is to be selected.  In the comments box, a descriptive reason for NRC is to be mentioned along with the office in which posted.   In the Reference upload,  the CTC copy/transfer order/leave application for more than 15 days etc of self or reporting officer where ever applicable are to be uploaded in PDF format (less than 3 MB size). Click on “Save as Draft”.  Click “send to Officer Reported Upon” Sign digitally by DSC or e-Hastakshar</t>
-  </si>
-  <si>
     <r>
       <t>Log in &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;</t>
     </r>
@@ -651,6 +648,405 @@
   <si>
     <t>1. The officers/officials working in HQrs/Admin of CIT/DIT/PCIT/PDIT/CCIT/PCCIT will be treated as complete after reporting by concerned CIT/PCIT/CCIT/PCCIT and the comments of such reporting officer is treated as final and no review is required.  Reference: HRD CBDT letter HRD/PMD/APAR/403/5/2015-16/9345 dt 07 Mar 2016. &lt;/br&gt;&lt;/br&gt;
 2.  In the cadres of Sr Private Secretary, Private Secretary and Staff Car Driver the APAR reported by the reporting officer is final and need not be reviewed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the officer worked under any Reporting Officer for a period less than 90 days due to&lt;br&gt; 1. Transfer of Officer Reported Upon (ORU). &lt;br&gt;&lt;br&gt;2. Transfer of Reporting Officer &lt;br&gt;&lt;br&gt;3. Retirement of Reporting Officer/ORU &lt;br&gt;&lt;br&gt;4. Period of leave availed/training for more than 15 days and when such leave/training period is deducted from the period worked under Reporting Officer becomes less than 90 days&lt;br&gt;&lt;br&gt;  5. Period of leave availed by Reporting Officer more than 15 days and such leave period is to deducted from the entire period worked under reporting officer becomes less than 90 days. </t>
+  </si>
+  <si>
+    <t>sparrow mobile number</t>
+  </si>
+  <si>
+    <t>how to file apar</t>
+  </si>
+  <si>
+    <t>NRC competent Authority is the Primary Custodian.  While creating NRC, select PRAVALIKA KINTHADA)PC-HYDERABD)[_PRIMARY CUSTODIAN-CBDT-IT-AP&amp;TELANGANA] from search window.</t>
+  </si>
+  <si>
+    <t>NRC Competent Authority</t>
+  </si>
+  <si>
+    <t>Competent authority for NRC</t>
+  </si>
+  <si>
+    <t>Competent authority NRC</t>
+  </si>
+  <si>
+    <t>who is NRC CR Section</t>
+  </si>
+  <si>
+    <t>NRC CR Section is the Primary Custodian.  While creating NRC, NRC CR section by default the name as PRAVALIKA KINTHADA)PC-HYDERABD)[_PRIMARY CUSTODIAN-CBDT-IT-AP&amp;TELANGANA] appears.</t>
+  </si>
+  <si>
+    <t>NRC CR Section</t>
+  </si>
+  <si>
+    <t>CR Section NRC</t>
+  </si>
+  <si>
+    <t>Who has to fill apar in sparrow</t>
+  </si>
+  <si>
+    <t>who have to fill apar</t>
+  </si>
+  <si>
+    <t>is it necessary to upload document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.  The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 mb maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register so on … which ever is applicable. </t>
+  </si>
+  <si>
+    <t>Upload document</t>
+  </si>
+  <si>
+    <t>Upload document necessary</t>
+  </si>
+  <si>
+    <t>Upload document compulsory</t>
+  </si>
+  <si>
+    <t>Comments to be put in NRC</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where Reporting officer transferred out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: “ I have worked as ITO/AO/PS in O/o      under the reporting officer Sri ……… Addl CIT, Range……..    , Hyderabad  from   date……. To……. date and the reporting officer was relieved on transfer on dt ………..  As the period under the reporting officer is less than 90 days, NRC for this period is requested”  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(please upload Transfer order/CTC copy in reference upload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where ORU transferred ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t: “ I have worked as ITO/AO/PS in O/o      under the reporting officer Sri ……… Addl CIT, Range ……, Hyderabad.  I have been transferred to O/o…………vide transfer order dt……………             and relived on date………………  As the period worked under the reporting officer is less than 90 days, NRC for this period is requested” (please upload transfer order/CTC copy in reference upload)
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where there are multiple reporting officers (in charge officers)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: “ I have worked as ITO/AO/PS in O/o ……………. under the reporting officers Sri ……… Addl CIT, Range ………….   , Hyderabad from ……..to……… , Sri ……… Addl CIT, Range……….    , Hyderabad from ……..to……… and  Sri ……… Addl CIT, Range       , Hyderabad from……………. to………….  As there are multiple reporting officers and the period worked under each officer is less than 90 days, NRC is requested.” (please upload all the CTC copies of reporting officers in reference upload). </t>
+    </r>
+  </si>
+  <si>
+    <t>Common comments in NRC</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>These Guidelines have been prepared on the basis of extant instructions/letters issued by Department of Personnel &amp; Training (DoPT) and Directorate of Income-tax (Human Resource Development), CBDT. In case of any variance between these Guidelines and instructions/letters issued by DoPT/Directorate of Income-tax (Human Resource Development), the latter will prevail.</t>
+  </si>
+  <si>
+    <t>How to get email-ids for login into SPARROW portal</t>
+  </si>
+  <si>
+    <t>For obtaining NIC email-id, the basic details of officer should be sent through respective Pr.CCIT(CCA) office to HRD. Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 Email id Official (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
+  </si>
+  <si>
+    <t>How to get log in ID</t>
+  </si>
+  <si>
+    <t>Log in ID for SPARROW</t>
+  </si>
+  <si>
+    <t>New log in ID</t>
+  </si>
+  <si>
+    <t>Submission of self appraisal to reporting officer by officer to be reported upon</t>
+  </si>
+  <si>
+    <t>30th April</t>
+  </si>
+  <si>
+    <t>Last date for Submission of self appraisal</t>
+  </si>
+  <si>
+    <t>Submission of self appraisal</t>
+  </si>
+  <si>
+    <t>Time line for self appraisal</t>
+  </si>
+  <si>
+    <t>Submission of report by reporting officer to reviewing officer</t>
+  </si>
+  <si>
+    <t>30th June</t>
+  </si>
+  <si>
+    <t>Submission of report by reporting officer</t>
+  </si>
+  <si>
+    <t>Last date for reporting of apar</t>
+  </si>
+  <si>
+    <t>Time line for reporting officer</t>
+  </si>
+  <si>
+    <t>Report to be completed by Reviewing Officer and to be sent to Administration or CR Section/Cell or accepting authority, wherever provided.</t>
+  </si>
+  <si>
+    <t>31st July</t>
+  </si>
+  <si>
+    <t>Reporting by reviewing officer to be completed by</t>
+  </si>
+  <si>
+    <t>time line for reviewing officer</t>
+  </si>
+  <si>
+    <t>Last date for reviewing of apar</t>
+  </si>
+  <si>
+    <t>Disclosure to the officer reported upon</t>
+  </si>
+  <si>
+    <t>01st September</t>
+  </si>
+  <si>
+    <t>Disclosure to the ORU</t>
+  </si>
+  <si>
+    <t>Representation by ORU</t>
+  </si>
+  <si>
+    <t>15 days from the date of receipt of communication of APAR</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>Form for JAO</t>
+  </si>
+  <si>
+    <t>Form-1(a) (Deputy/Assistant Commissioner/ Income Tax Officers and equivalent) (Faceless Assessing officers/Jurisdictional Assessing Officers). 
+ Form-2(a)  (Joint/Additional Commissioner and equivalent)(Faceless Assessment Units/ Jurisdictional Assessment Units) 
+Form-4(a) (Principal Commissioner of Income Tax/ Commissioner of Income Tax) (Faceless Assessment Units/ Jurisdictional Assessment Units)</t>
+  </si>
+  <si>
+    <t>JAO form</t>
+  </si>
+  <si>
+    <t>Form for FAO</t>
+  </si>
+  <si>
+    <t>FAO form</t>
+  </si>
+  <si>
+    <t>Faceless form</t>
+  </si>
+  <si>
+    <t>Jurisdictional form</t>
+  </si>
+  <si>
+    <t>Form for other than assessing officers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form 1  (Deputy/Assistant Commissioner or Deputy/Assistant Director of Income Tax/ Income Tax Officer and equivalent) (Other than Assessing Officer)
+Form- 2 (Joint/Additional Commissioner or Joint/Additional Director of Income Tax and equivalent)(Non-Assessment)
+Form 4  (Principal Commissioner of Income Tax or Principal Director of Income Tax Commissioner of Income Tax or Director of Income Tax and equivalent posted in non-field formations including Directorates and ITAT) </t>
+  </si>
+  <si>
+    <t>form for non assessment</t>
+  </si>
+  <si>
+    <t>Non assessment form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form for Central </t>
+  </si>
+  <si>
+    <t>Form 1(b) (Deputy/Assistant Commissioner/ Income Tax Officers and equivalent) (Non-Faceless Assessing officers) (Central/IT/Others) 
+Form 2(b)  (Joint/Additional Commissioner and equivalent)(Non-Faceless Assessment Units- Central/ International Taxation/Others)</t>
+  </si>
+  <si>
+    <t>Form for IT</t>
+  </si>
+  <si>
+    <t>Form for other assessing officers</t>
+  </si>
+  <si>
+    <t>form for appeals</t>
+  </si>
+  <si>
+    <t>Form 3(a) (Commissioner of Income Tax (Appeal)(Faceless)) 
+Form 3(b)  (Commissioner of Income Tax (Appeal))</t>
+  </si>
+  <si>
+    <t>Form for PS</t>
+  </si>
+  <si>
+    <t>Form D Form type to be filled by Senior Private Secretaries, Private Secretaries and Stenographers Grade I, II, III and equivalent</t>
+  </si>
+  <si>
+    <t>Form for Senior PS</t>
+  </si>
+  <si>
+    <t>Form for Stenographer</t>
+  </si>
+  <si>
+    <t>Form for OS</t>
+  </si>
+  <si>
+    <t>Form B Form type to be filled by Administrative Officers, Office Superintendents and equivalent</t>
+  </si>
+  <si>
+    <t>Form for AO</t>
+  </si>
+  <si>
+    <t>Form for Administrative Officer</t>
+  </si>
+  <si>
+    <t>how to e sign</t>
+  </si>
+  <si>
+    <t>The competent authority can use DSC or Aadhar based e-hasthakshar</t>
+  </si>
+  <si>
+    <t>e sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unable to log in </t>
+  </si>
+  <si>
+    <t>authentication failed</t>
+  </si>
+  <si>
+    <t>showing error authentication failed</t>
+  </si>
+  <si>
+    <t>log in failed</t>
+  </si>
+  <si>
+    <t>Where to file IPR</t>
+  </si>
+  <si>
+    <t>IPR</t>
+  </si>
+  <si>
+    <t>When to file IPR</t>
+  </si>
+  <si>
+    <t>Do I need to submit IPR copy</t>
+  </si>
+  <si>
+    <t>No.  You need not submit copy of the Immovable Property Return anywhere once submitted in SPARROW portal.</t>
+  </si>
+  <si>
+    <t>Where to submit copy of IPR</t>
+  </si>
+  <si>
+    <t>Who is the competent authority for IPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary custodian is the competent authority for Immovable Property Return </t>
+  </si>
+  <si>
+    <t>Immovable Property Return</t>
+  </si>
+  <si>
+    <t>When to file Immovable Property Return</t>
+  </si>
+  <si>
+    <t>Where to file Immovable Property Return</t>
+  </si>
+  <si>
+    <t>Log in in &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP</t>
+  </si>
+  <si>
+    <t>ORU</t>
+  </si>
+  <si>
+    <t>Officer Reported Upon.  That is you.</t>
+  </si>
+  <si>
+    <t>Who is ORU</t>
+  </si>
+  <si>
+    <t>Before 30th April</t>
+  </si>
+  <si>
+    <t>Time line for apar</t>
+  </si>
+  <si>
+    <t>how do I reset my sparrow password</t>
+  </si>
+  <si>
+    <t>where do I login</t>
+  </si>
+  <si>
+    <t>1.Log in &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with sparrow id, password and OTP and then  log in SPARROW/Parichay with same sparrow id, password and newly generated OTP. &lt;br&gt;&lt;br&gt; 2.Select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable. &lt;br&gt;&lt;br&gt;3. Select “workflow”  select “create/update” search by employee name,  click on “create workflow”.&lt;br&gt;&lt;br&gt;4.  Select NRC in "Status" tab .  In the “Status” column, instead of APAR, NRC has to be selected for creating NRC request. &lt;br&gt;&lt;br&gt;5. After creating NRC workflow, Reporting Period from, Reporting Period to, Reporting Officer Name Reporting Officer Designation, have to be filled.  In the remarks column,  correct reason for requesting NRC is to be selected.  In the comments box, a descriptive reason for NRC is to be mentioned along with the office in which posted.   In the Reference upload,  the CTC copy/transfer order/leave application for more than 15 days etc of self or reporting officer where ever applicable are to be uploaded in PDF format (less than 3 MB size).&lt;br&gt;&lt;br&gt;6. Click on “Save as Draft”.  &lt;br&gt;&lt;br&gt;7.Click “send to Officer Reported Upon” Sign digitally by DSC or e-Hastakshar</t>
   </si>
   <si>
     <r>
@@ -663,7 +1059,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">      </t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -692,385 +1088,59 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> April for the previous year.&lt;/br&gt;&lt;/br&gt;
-2.      Whenever part APAR is to be initiated due to self transfer / retirement/transfer of Reporting Officer, the part APAR is to be initiated within 15 days from the date of transfer/ retirement of reporting officer.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">If the officer worked under any Reporting Officer for a period less than 90 days due to&lt;br&gt; 1. Transfer of Officer Reported Upon (ORU). &lt;br&gt;&lt;br&gt;2. Transfer of Reporting Officer &lt;br&gt;&lt;br&gt;3. Retirement of Reporting Officer/ORU &lt;br&gt;&lt;br&gt;4. Period of leave availed/training for more than 15 days and when such leave/training period is deducted from the period worked under Reporting Officer becomes less than 90 days&lt;br&gt;&lt;br&gt;  5. Period of leave availed by Reporting Officer more than 15 days and such leave period is to deducted from the entire period worked under reporting officer becomes less than 90 days. </t>
-  </si>
-  <si>
-    <t>sparrow mobile number</t>
-  </si>
-  <si>
-    <t>how to file apar</t>
-  </si>
-  <si>
-    <t>NRC competent Authority is the Primary Custodian.  While creating NRC, select PRAVALIKA KINTHADA)PC-HYDERABD)[_PRIMARY CUSTODIAN-CBDT-IT-AP&amp;TELANGANA] from search window.</t>
-  </si>
-  <si>
-    <t>NRC Competent Authority</t>
-  </si>
-  <si>
-    <t>Competent authority for NRC</t>
-  </si>
-  <si>
-    <t>Competent authority NRC</t>
-  </si>
-  <si>
-    <t>who is NRC CR Section</t>
-  </si>
-  <si>
-    <t>NRC CR Section is the Primary Custodian.  While creating NRC, NRC CR section by default the name as PRAVALIKA KINTHADA)PC-HYDERABD)[_PRIMARY CUSTODIAN-CBDT-IT-AP&amp;TELANGANA] appears.</t>
-  </si>
-  <si>
-    <t>NRC CR Section</t>
-  </si>
-  <si>
-    <t>CR Section NRC</t>
-  </si>
-  <si>
-    <t>Who has to fill apar in sparrow</t>
-  </si>
-  <si>
-    <t>Is it compulsary to fill apar</t>
-  </si>
-  <si>
-    <t>who have to fill apar</t>
-  </si>
-  <si>
-    <t>is it necessary to upload document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes.  The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 mb maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register so on … which ever is applicable. </t>
-  </si>
-  <si>
-    <t>Upload document</t>
-  </si>
-  <si>
-    <t>Upload document necessary</t>
-  </si>
-  <si>
-    <t>Upload document compulsory</t>
-  </si>
-  <si>
-    <t>necessary documents tp be Uploaded</t>
-  </si>
-  <si>
-    <t>Comments to be put in NRC</t>
-  </si>
-  <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Where Reporting officer transferred out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: “ I have worked as ITO/AO/PS in O/o      under the reporting officer Sri ……… Addl CIT, Range……..    , Hyderabad  from   date……. To……. date and the reporting officer was relieved on transfer on dt ………..  As the period under the reporting officer is less than 90 days, NRC for this period is requested”  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(please upload Transfer order/CTC copy in reference upload</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) 
-•</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Where ORU transferred ou</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t: “ I have worked as ITO/AO/PS in O/o      under the reporting officer Sri ……… Addl CIT, Range ……, Hyderabad.  I have been transferred to O/o…………vide transfer order dt……………             and relived on date………………  As the period worked under the reporting officer is less than 90 days, NRC for this period is requested” (please upload transfer order/CTC copy in reference upload)
-•</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Where there are multiple reporting officers (in charge officers)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: “ I have worked as ITO/AO/PS in O/o ……………. under the reporting officers Sri ……… Addl CIT, Range ………….   , Hyderabad from ……..to……… , Sri ……… Addl CIT, Range……….    , Hyderabad from ……..to……… and  Sri ……… Addl CIT, Range       , Hyderabad from……………. to………….  As there are multiple reporting officers and the period worked under each officer is less than 90 days, NRC is requested.” (please upload all the CTC copies of reporting officers in reference upload). </t>
-    </r>
-  </si>
-  <si>
-    <t>Common comments in NRC</t>
-  </si>
-  <si>
-    <t>Model commnets in NRC</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Comments tamplet</t>
-  </si>
-  <si>
-    <t>Disclaimer</t>
-  </si>
-  <si>
-    <t>These Guidelines have been prepared on the basis of extant instructions/letters issued by Department of Personnel &amp; Training (DoPT) and Directorate of Income-tax (Human Resource Development), CBDT. In case of any variance between these Guidelines and instructions/letters issued by DoPT/Directorate of Income-tax (Human Resource Development), the latter will prevail.</t>
-  </si>
-  <si>
-    <t>How to get email-ids for login into SPARROW portal</t>
-  </si>
-  <si>
-    <t>For obtaining NIC email-id, the basic details of officer should be sent through respective Pr.CCIT(CCA) office to HRD. Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 Email id Official (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
-  </si>
-  <si>
-    <t>How to get log in ID</t>
-  </si>
-  <si>
-    <t>Log in ID for SPARROW</t>
-  </si>
-  <si>
-    <t>New log in ID</t>
-  </si>
-  <si>
-    <t>Submission of self appraisal to reporting officer by officer to be reported upon</t>
-  </si>
-  <si>
-    <t>30th April</t>
-  </si>
-  <si>
-    <t>Last date for Submission of self appraisal</t>
-  </si>
-  <si>
-    <t>Submission of self appraisal</t>
-  </si>
-  <si>
-    <t>Time line for self appraisal</t>
-  </si>
-  <si>
-    <t>Submission of report by reporting officer to reviewing officer</t>
-  </si>
-  <si>
-    <t>30th June</t>
-  </si>
-  <si>
-    <t>Submission of report by reporting officer</t>
-  </si>
-  <si>
-    <t>Last date for reporting of apar</t>
-  </si>
-  <si>
-    <t>Time line for reporting officer</t>
-  </si>
-  <si>
-    <t>Report to be completed by Reviewing Officer and to be sent to Administration or CR Section/Cell or accepting authority, wherever provided.</t>
-  </si>
-  <si>
-    <t>31st July</t>
-  </si>
-  <si>
-    <t>Reporting by reviewing officer to be completed by</t>
-  </si>
-  <si>
-    <t>time line for reviewing officer</t>
-  </si>
-  <si>
-    <t>Last date for reviewing of apar</t>
-  </si>
-  <si>
-    <t>Disclosure to the officer reported upon</t>
-  </si>
-  <si>
-    <t>01st September</t>
-  </si>
-  <si>
-    <t>Disclosure to the ORU</t>
-  </si>
-  <si>
-    <t>Representation by ORU</t>
-  </si>
-  <si>
-    <t>15 days from the date of receipt of communication of APAR</t>
-  </si>
-  <si>
-    <t>Representation</t>
-  </si>
-  <si>
-    <t>Form for JAO</t>
-  </si>
-  <si>
-    <t>Form-1(a) (Deputy/Assistant Commissioner/ Income Tax Officers and equivalent) (Faceless Assessing officers/Jurisdictional Assessing Officers). 
- Form-2(a)  (Joint/Additional Commissioner and equivalent)(Faceless Assessment Units/ Jurisdictional Assessment Units) 
-Form-4(a) (Principal Commissioner of Income Tax/ Commissioner of Income Tax) (Faceless Assessment Units/ Jurisdictional Assessment Units)</t>
-  </si>
-  <si>
-    <t>JAO form</t>
-  </si>
-  <si>
-    <t>Form for FAO</t>
-  </si>
-  <si>
-    <t>FAO form</t>
-  </si>
-  <si>
-    <t>Faceless form</t>
-  </si>
-  <si>
-    <t>Jurisdictional form</t>
-  </si>
-  <si>
-    <t>Form for other than assessing officers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form 1  (Deputy/Assistant Commissioner or Deputy/Assistant Director of Income Tax/ Income Tax Officer and equivalent) (Other than Assessing Officer)
-Form- 2 (Joint/Additional Commissioner or Joint/Additional Director of Income Tax and equivalent)(Non-Assessment)
-Form 4  (Principal Commissioner of Income Tax or Principal Director of Income Tax Commissioner of Income Tax or Director of Income Tax and equivalent posted in non-field formations including Directorates and ITAT) </t>
-  </si>
-  <si>
-    <t>form for non assessment</t>
-  </si>
-  <si>
-    <t>Non assessment form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form for Central </t>
-  </si>
-  <si>
-    <t>Form 1(b) (Deputy/Assistant Commissioner/ Income Tax Officers and equivalent) (Non-Faceless Assessing officers) (Central/IT/Others) 
-Form 2(b)  (Joint/Additional Commissioner and equivalent)(Non-Faceless Assessment Units- Central/ International Taxation/Others)</t>
-  </si>
-  <si>
-    <t>Form for IT</t>
-  </si>
-  <si>
-    <t>Form for Internationa Taxation</t>
-  </si>
-  <si>
-    <t>Form for other assessing officers</t>
-  </si>
-  <si>
-    <t>form for appeals</t>
-  </si>
-  <si>
-    <t>Form 3(a) (Commissioner of Income Tax (Appeal)(Faceless)) 
-Form 3(b)  (Commissioner of Income Tax (Appeal))</t>
-  </si>
-  <si>
-    <t>Form for PS</t>
-  </si>
-  <si>
-    <t>Form D Form type to be filled by Senior Private Secretaries, Private Secretaries and Stenographers Grade I, II, III and equivalent</t>
-  </si>
-  <si>
-    <t>Form for Senior PS</t>
-  </si>
-  <si>
-    <t>Form for Stenographer</t>
-  </si>
-  <si>
-    <t>Form for OS</t>
-  </si>
-  <si>
-    <t>Form B Form type to be filled by Administrative Officers, Office Superintendents and equivalent</t>
-  </si>
-  <si>
-    <t>Form for AO</t>
-  </si>
-  <si>
-    <t>Form for Administrative Officer</t>
-  </si>
-  <si>
-    <t>how to e sign</t>
-  </si>
-  <si>
-    <t>The competent authority can use DSC or Aadhar based e-hasthakshar</t>
-  </si>
-  <si>
-    <t>e sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unable to log in </t>
-  </si>
-  <si>
-    <t>authentication failed</t>
-  </si>
-  <si>
-    <t>showing error authentication failed</t>
-  </si>
-  <si>
-    <t>log in failed</t>
-  </si>
-  <si>
-    <t>Where to file IPR</t>
-  </si>
-  <si>
-    <t>IPR</t>
-  </si>
-  <si>
-    <t>The IPR i.e., Immovable Property Return has to be submitted by all officers upto the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable proverty held as on 01st January of that year.</t>
-  </si>
-  <si>
-    <t>When to file IPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is it compulsary to fill IPR </t>
-  </si>
-  <si>
-    <t>Yes.  The IPR has to be filed by all officers upto the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable proverty held as on 01st January of that year.
+2.Whenever part APAR is to be initiated due to self transfer / retirement/transfer of Reporting Officer, the part APAR is to be initiated within 15 days from the date of transfer/ retirement of reporting officer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset SPARROW password use this link: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href="https://passapp.email.gov.in/passapp/"&gt;https://passapp.email.gov.in/passapp/&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it compulsory to fill IPR </t>
+  </si>
+  <si>
+    <t>All the officers and officials from the APAR year 2024-25 have to compulsorily fill APAR online in SPARROW portal.</t>
+  </si>
+  <si>
+    <t>Is it compulsory to fill apar</t>
+  </si>
+  <si>
+    <t>necessary documents to be Uploaded</t>
+  </si>
+  <si>
+    <t>Model comments in NRC</t>
+  </si>
+  <si>
+    <t>Comments template</t>
+  </si>
+  <si>
+    <t>Form for International Taxation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPR to be filed in SPARROW portal by log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again log in in this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened select and click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.   On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
+  </si>
+  <si>
+    <t>The IPR i.e., Immovable Property Return has to be submitted by all officers up to the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable property held as on 01st January of that year.</t>
+  </si>
+  <si>
+    <t>Yes.  The IPR has to be filed by all officers up to the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable property held as on 01st January of that year.
 Rule 18(1)(ii) of the CCS (Conduct) Rules, 1964 states as under: 
 “(ii) Every Government servant belonging to any service or holding any post included in Group ‘A’ and Group ‘B’ shall submit an annual return in such form as may be prescribed by the Government in this regard giving full particulars regarding the immovable property inherited by him or owned or acquired by him or held by him on lease or mortgage either in his own name or in the name of any member of his family or in the name of any other person.” 
 Accordingly, all Group 'A' and Group 'B' Government servants are required to file Annual Immovable Property Return (IPR) of the previous year latest by 31st January of the following year. 
 Kind attention is also invited to DoPT OM No. 104/33/2024-A VD-IA dated 09.10.2024, which states that vigilance clearance shall be denied to an officer, if he/she fails to submit his/her annual immovable property return of the previous year by 31st January of the following year in the following cases: 
-i. Empanelment 
+I. Empanelment 
 ii. Ex- India study leave 
 iii. Any deputation for which clearance is necessary and extension there of 
 iv. Appointment to sensitive posts. 
@@ -1083,71 +1153,7 @@
 Therefore, filing of IPR is very important for all Group-A and Group-B Government servants</t>
   </si>
   <si>
-    <t>Do I need to submit IPR copy</t>
-  </si>
-  <si>
-    <t>No.  You need not submit copy of the Immovable Property Return anywhere once submitted in SPARROW portal.</t>
-  </si>
-  <si>
-    <t>Where to submit copy of IPR</t>
-  </si>
-  <si>
-    <t>Who is the competent authority for IPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary custodian is the competent authority for Immovable Property Return </t>
-  </si>
-  <si>
-    <t>Immovable Property Return</t>
-  </si>
-  <si>
-    <t>When to file Immovable Property Return</t>
-  </si>
-  <si>
-    <t>Where to file Immovable Property Return</t>
-  </si>
-  <si>
-    <t>Is it compulsary to fill Immovable Property Return</t>
-  </si>
-  <si>
-    <t>Log in in &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPR to be filed in SPARROW portal by log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again log in in this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened select and clic on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.   On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reset SPAROW password use this link: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;a href="https://passapp.email.gov.in/passapp/"&gt;https://passapp.email.gov.in/passapp/&lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>ORU</t>
-  </si>
-  <si>
-    <t>Officer Reported Upon.  That is you.</t>
-  </si>
-  <si>
-    <t>Who is ORU</t>
-  </si>
-  <si>
-    <t>All the officicers and officials from the APAR year 2024-25 have to compulsorily fill APAR online in SPARROW portal.</t>
-  </si>
-  <si>
-    <t>Before 30th April</t>
-  </si>
-  <si>
-    <t>Time line for apar</t>
+    <t>Is it compulsory to fill Immovable Property Return</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1287,6 +1293,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1569,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R157"/>
+  <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,39 +1658,39 @@
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>76</v>
@@ -1689,7 +1698,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>76</v>
@@ -1697,47 +1706,47 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>63</v>
@@ -1745,15 +1754,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -1761,15 +1770,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>77</v>
@@ -1777,7 +1786,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>77</v>
@@ -1785,7 +1794,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>77</v>
@@ -1793,7 +1802,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>77</v>
@@ -1801,7 +1810,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>77</v>
@@ -1809,7 +1818,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>77</v>
@@ -1817,15 +1826,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
@@ -1833,31 +1842,31 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>67</v>
@@ -1865,71 +1874,71 @@
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>79</v>
@@ -1937,95 +1946,95 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="237" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="237" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="237" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>69</v>
+      <c r="B55" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>69</v>
@@ -2033,709 +2042,715 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>81</v>
+      <c r="B61" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B93" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
-        <v>137</v>
+      <c r="A106" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>139</v>
+      <c r="A107" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>177</v>
+        <v>185</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
+      <c r="A145" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
@@ -2784,6 +2799,10 @@
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA8DA62-DC50-4C34-9BA6-3F654662E39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516C3E3D-2A7C-4B96-A999-B6D5AAF60AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="199">
   <si>
     <t>hello</t>
   </si>
@@ -402,53 +402,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>After log in in to Parichay from the left side menu panel select "Workflow", and then "Create/Update Workflow".  And then search by employee name or Employee ID.  Click on "Create Workflow".  Select correct Assessment period.  Select APAR/NRC as applicable. Select correct form type.  click “Action” button and then "Continue".  Here select correct reporting authority by search  option on the right side.  New window for search will open.  In the search window  “service” to be chosen as  INCOME TAX (GZTD) if your reporting officer is Group B Gazetted officer and " INCOME TAX REVENUE SERVICE (IT)" if your reporting officer is IRS officer . Give input as name or employee code and press  “search”. From the search result select your reporting officer. Choose reviewing officer in the same method.  Click “save” (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>do not press “save and next”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) .  You will see comment </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Workflow has been created successfully"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in a new window. </t>
-    </r>
-  </si>
-  <si>
     <t>How to initiate NRC</t>
   </si>
   <si>
@@ -1108,9 +1061,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Is it compulsory to fill IPR </t>
-  </si>
-  <si>
     <t>All the officers and officials from the APAR year 2024-25 have to compulsorily fill APAR online in SPARROW portal.</t>
   </si>
   <si>
@@ -1135,25 +1085,85 @@
     <t>The IPR i.e., Immovable Property Return has to be submitted by all officers up to the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable property held as on 01st January of that year.</t>
   </si>
   <si>
+    <t>Is it compulsory to fill Immovable Property Return</t>
+  </si>
+  <si>
+    <t>sparrow</t>
+  </si>
+  <si>
+    <r>
+      <t>1. After log in in to Parichay from the left side menu panel select "Workflow" and then "Create/Update Workflow" &lt;br&gt;&lt;br&gt;2. Search by employee name or Employee ID.  Click on "Create Workflow".&lt;br&gt;&lt;br&gt;3.  Select correct Assessment period.&lt;br&gt;&lt;br&gt;3. Select APAR/NRC as applicable.&lt;br&gt;&lt;br&gt;4. Select correct form type.&lt;br&gt;&lt;br&gt;5. Click “Action” button and then "Continue".  Here select correct reporting authority by search  option on the right side.  New window for search will open. &lt;br&gt;&lt;br&gt;6. In the search window  “service” to be chosen as  INCOME TAX (GZTD) if your reporting officer is Group B Gazetted officer and " INCOME TAX REVENUE SERVICE (IT)" if your reporting officer is IRS officer . Give input as name or employee code and press  “search”. From the search result select your reporting officer. Choose reviewing officer in the same method.  Click “save” (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do not press “save and next”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) .  You will see comment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Workflow has been created successfully"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a new window. </t>
+    </r>
+  </si>
+  <si>
+    <t>not able to login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it compulsory to file IPR </t>
+  </si>
+  <si>
     <t>Yes.  The IPR has to be filed by all officers up to the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable property held as on 01st January of that year.
-Rule 18(1)(ii) of the CCS (Conduct) Rules, 1964 states as under: 
+Rule 18(1)(ii) of the CCS (Conduct) Rules, 1964 states as under:&lt;br&gt;&lt;br&gt; 
 “(ii) Every Government servant belonging to any service or holding any post included in Group ‘A’ and Group ‘B’ shall submit an annual return in such form as may be prescribed by the Government in this regard giving full particulars regarding the immovable property inherited by him or owned or acquired by him or held by him on lease or mortgage either in his own name or in the name of any member of his family or in the name of any other person.” 
 Accordingly, all Group 'A' and Group 'B' Government servants are required to file Annual Immovable Property Return (IPR) of the previous year latest by 31st January of the following year. 
-Kind attention is also invited to DoPT OM No. 104/33/2024-A VD-IA dated 09.10.2024, which states that vigilance clearance shall be denied to an officer, if he/she fails to submit his/her annual immovable property return of the previous year by 31st January of the following year in the following cases: 
-I. Empanelment 
-ii. Ex- India study leave 
-iii. Any deputation for which clearance is necessary and extension there of 
-iv. Appointment to sensitive posts. 
-v. Assignments to training programmes except mandatory training 
-vi. Confirmation in service 
-vii. Retirement on VRS 
-viii. Post-retirement commercial employment 
-ix. Pre-mature repatriation (voluntary) from any deputation 
+&lt;br&gt;&lt;br&gt;
+Kind attention is also invited to DoPT OM No. 104/33/2024-A VD-IA dated 09.10.2024, which states that vigilance clearance shall be denied to an officer, if he/she fails to submit his/her annual immovable property return of the previous year by 31st January of the following year in the following cases:&lt;br&gt;&lt;br&gt; 
+I. Empanelment&lt;br&gt;&lt;br&gt; 
+ii. Ex- India study leave&lt;br&gt;&lt;br&gt; 
+iii. Any deputation for which clearance is necessary and extension there of &lt;br&gt;&lt;br&gt; 
+iv. Appointment to sensitive posts. &lt;br&gt;&lt;br&gt; 
+v. Assignments to training programmes except mandatory training &lt;br&gt;&lt;br&gt; 
+vi. Confirmation in service &lt;br&gt;&lt;br&gt; 
+vii. Retirement on VRS &lt;br&gt;&lt;br&gt; 
+viii. Post-retirement commercial employment &lt;br&gt;&lt;br&gt; 
+ix. Pre-mature repatriation (voluntary) from any deputation &lt;br&gt;&lt;br&gt; 
 Kind attention is also drawn to, the Central Vigilance Commission's Office Order No. 17/11/2020 dated 23.11.2020, circulated vide this Office letter F.No. P 329/Personnel/IPR/2020-21/754 dated 18.12.2020, mentioning that timely filing of Property Return by the officials of Ministries/Departments/Organizations is one of the mandatory requirement under CCS (Conduct) Rules and non-filing of Property Returns constitutes good and sufficient reasons for instituting disciplinary action against the delinquent officials. 
 Therefore, filing of IPR is very important for all Group-A and Group-B Government servants</t>
   </si>
   <si>
-    <t>Is it compulsory to fill Immovable Property Return</t>
+    <t xml:space="preserve">IPR is to be filed in SPARROW portal.&lt;br&gt;&lt;br&gt;1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP. The SPARROW/Parichay opens.&lt;br&gt;&lt;br&gt; 2.Again log in in this page with same SPARROW User ID and Password and newly generated OTP.&lt;br&gt;&lt;br&gt;3. When the new page is opened select and click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  &lt;br&gt;&lt;br&gt;4. On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
   </si>
 </sst>
 </file>
@@ -1578,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R158"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1668,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>74</v>
@@ -1674,10 +1684,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1685,7 +1695,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1722,7 +1732,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>71</v>
@@ -1738,7 +1748,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -1746,15 +1756,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -1762,15 +1772,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>64</v>
@@ -1778,71 +1788,71 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>65</v>
@@ -1850,31 +1860,31 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -1882,167 +1892,167 @@
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="237" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="237" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="237" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>69</v>
+      <c r="B56" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>69</v>
@@ -2050,715 +2060,723 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>80</v>
+      <c r="B62" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="B129" s="6" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>194</v>
+        <v>163</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>167</v>
+        <v>196</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>194</v>
+        <v>171</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B144" s="6" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
+      <c r="B147" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
@@ -2803,6 +2821,14 @@
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516C3E3D-2A7C-4B96-A999-B6D5AAF60AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD49C4-A9EB-4174-9830-21C3F370DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>No Report Certificate</t>
   </si>
   <si>
-    <t xml:space="preserve">Form is selected while initiating APAR work flow basing on the duties assigned i.e., Faceless or .  </t>
-  </si>
-  <si>
     <t xml:space="preserve">A Basic Information form is to be filled by ORU manually with self signature and to be attested by DDO and to be handed over to concerned PAR Manager for filling the details in Basic Information page of APAR.  PAR Manager fills the Basic Information and e-signs in sparrow portal.  Then the APAR is automatically shifted to ORU console for Self Appraisal. </t>
   </si>
   <si>
@@ -1164,6 +1161,9 @@
   </si>
   <si>
     <t xml:space="preserve">IPR is to be filed in SPARROW portal.&lt;br&gt;&lt;br&gt;1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP. The SPARROW/Parichay opens.&lt;br&gt;&lt;br&gt; 2.Again log in in this page with same SPARROW User ID and Password and newly generated OTP.&lt;br&gt;&lt;br&gt;3. When the new page is opened select and click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  &lt;br&gt;&lt;br&gt;4. On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
+  </si>
+  <si>
+    <t>Form is selected while initiating APAR work flow basing on the duties assigned i.e., Faceless or Jurisdictional or Central or International Taxation or Other than assessment duties.</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1663,15 +1663,15 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -1679,15 +1679,15 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1695,31 +1695,31 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1727,15 +1727,15 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1743,12 +1743,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1815,7 +1815,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1831,7 +1831,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1839,7 +1839,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1855,7 +1855,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1887,7 +1887,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1903,7 +1903,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +1911,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,15 +1919,15 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1943,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1951,7 +1951,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1959,7 +1959,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1967,15 +1967,15 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1983,7 +1983,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1999,7 +1999,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2007,7 +2007,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2015,7 +2015,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2023,7 +2023,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="237" x14ac:dyDescent="0.3">
@@ -2039,7 +2039,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="237" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2055,7 +2055,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2071,7 +2071,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2087,7 +2087,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
@@ -2095,7 +2095,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2103,7 +2103,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2111,7 +2111,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2135,647 +2135,647 @@
         <v>61</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD49C4-A9EB-4174-9830-21C3F370DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6D9E4-76F1-4DD4-A056-5431022633DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="314">
   <si>
     <t>hello</t>
   </si>
@@ -214,12 +214,6 @@
   </si>
   <si>
     <t>Smart Performance Appraisal Report Recording Online Window</t>
-  </si>
-  <si>
-    <t>Annual Performance Appraisal Report</t>
-  </si>
-  <si>
-    <t>No Report Certificate</t>
   </si>
   <si>
     <t xml:space="preserve">A Basic Information form is to be filled by ORU manually with self signature and to be attested by DDO and to be handed over to concerned PAR Manager for filling the details in Basic Information page of APAR.  PAR Manager fills the Basic Information and e-signs in sparrow portal.  Then the APAR is automatically shifted to ORU console for Self Appraisal. </t>
@@ -642,9 +636,6 @@
     <t>is it necessary to upload document</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes.  The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 mb maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register so on … which ever is applicable. </t>
-  </si>
-  <si>
     <t>Upload document</t>
   </si>
   <si>
@@ -949,9 +940,6 @@
   </si>
   <si>
     <t>Do I need to submit IPR copy</t>
-  </si>
-  <si>
-    <t>No.  You need not submit copy of the Immovable Property Return anywhere once submitted in SPARROW portal.</t>
   </si>
   <si>
     <t>Where to submit copy of IPR</t>
@@ -1141,7 +1129,16 @@
     <t xml:space="preserve">Is it compulsory to file IPR </t>
   </si>
   <si>
-    <t>Yes.  The IPR has to be filed by all officers up to the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable property held as on 01st January of that year.
+    <t xml:space="preserve">IPR is to be filed in SPARROW portal.&lt;br&gt;&lt;br&gt;1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP. The SPARROW/Parichay opens.&lt;br&gt;&lt;br&gt; 2.Again log in in this page with same SPARROW User ID and Password and newly generated OTP.&lt;br&gt;&lt;br&gt;3. When the new page is opened select and click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  &lt;br&gt;&lt;br&gt;4. On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
+  </si>
+  <si>
+    <t>Form is selected while initiating APAR work flow basing on the duties assigned i.e., Faceless or Jurisdictional or Central or International Taxation or Other than assessment duties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 mb maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register so on … which ever is applicable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The IPR has to be filed by all officers up to the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable property held as on 01st January of that year.
 Rule 18(1)(ii) of the CCS (Conduct) Rules, 1964 states as under:&lt;br&gt;&lt;br&gt; 
 “(ii) Every Government servant belonging to any service or holding any post included in Group ‘A’ and Group ‘B’ shall submit an annual return in such form as may be prescribed by the Government in this regard giving full particulars regarding the immovable property inherited by him or owned or acquired by him or held by him on lease or mortgage either in his own name or in the name of any member of his family or in the name of any other person.” 
 Accordingly, all Group 'A' and Group 'B' Government servants are required to file Annual Immovable Property Return (IPR) of the previous year latest by 31st January of the following year. 
@@ -1160,17 +1157,488 @@
 Therefore, filing of IPR is very important for all Group-A and Group-B Government servants</t>
   </si>
   <si>
-    <t xml:space="preserve">IPR is to be filed in SPARROW portal.&lt;br&gt;&lt;br&gt;1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP. The SPARROW/Parichay opens.&lt;br&gt;&lt;br&gt; 2.Again log in in this page with same SPARROW User ID and Password and newly generated OTP.&lt;br&gt;&lt;br&gt;3. When the new page is opened select and click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  &lt;br&gt;&lt;br&gt;4. On the left bottom of the panel IPR appear.  File the IPR either filling on line or uploading presigned PDF of the IPR return. </t>
-  </si>
-  <si>
-    <t>Form is selected while initiating APAR work flow basing on the duties assigned i.e., Faceless or Jurisdictional or Central or International Taxation or Other than assessment duties.</t>
+    <t>You need not submit copy of the Immovable Property Return anywhere once submitted in SPARROW portal.</t>
+  </si>
+  <si>
+    <t>Annual Performance Appraisal Report.  The self appraisal is to be submitted before 30th Apr.</t>
+  </si>
+  <si>
+    <t>No Report Certificate.  When the ORU works under his supervisory officer for less than 90 days, NRC is to be initiated in SPARROW.</t>
+  </si>
+  <si>
+    <t>Whom should I contact</t>
+  </si>
+  <si>
+    <t>Please send your queries by mentioning your Name, Emp ID, Cadre, Present office of Posting, Mobile Number to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For Hyderabad region only)</t>
+  </si>
+  <si>
+    <t>Can I use my income tax mail id for sparrow</t>
+  </si>
+  <si>
+    <t>The log in id for SPARROW is separetly created and was communicated to your registered mobile number. For any queries contact  &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For Hyderabad region only) by mentioning your Name, Emp ID, Cadre, Present office of Posting, Mobile Number.</t>
+  </si>
+  <si>
+    <t>How to delete wrongly created APAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The wrongly created APAR can be deleted by the PAR Manager upto the stage before e sign.  Once the PAR Manager esigns, it has to be deleted by Primary Custodian only.  Please send the details of PAR period to &lt;b&gt;&lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For Hyderabad region only)&lt;b&gt; with details of ORU such as Name, Emp ID, Cadre, Present office of Posting, Mobile Number to </t>
+  </si>
+  <si>
+    <t>Delete workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The wrongly created APAR can be deleted by the PAR Manager upto the stage before e sign.  Once the PAR Manager esigns, it has to be deleted by Primary Custodian only.  Please send the details of PAR period to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For Hyderabad region only) with details of ORU such as Name, Emp ID, Cadre, Present office of Posting, Mobile Number to </t>
+  </si>
+  <si>
+    <t>wrong apar</t>
+  </si>
+  <si>
+    <t>How to submit apar</t>
+  </si>
+  <si>
+    <t>Stage 1 :  Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with SPARROW id, password and OTP → log in to SPARROW/parichay with SPARROW id, password and OTP → select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable → select “User Assistance” → select “Create Self Workflow” → create workflow → chose Organisation Posted as CBDT IT AP&amp; Telangana → select period → select APAR/NRC as applicable → select “form type” → select “Action” → select “continue” → select correct reporting authority by search   option → In “service” column choose INCOME TAX (GZTD) or INCOME TAX REVENUE SERVICE (IT) as applicable → give input as name or employee code and click on “search” → select your reporting officer → choose reviewing officer in the same method → click “save” (do not press “save and next”) → you will see comment  Workflow has been created successfully  in a new window → fill manual basic information form, put your signature → get your DDO signature → hand over to your PAR Manager.&lt;br&gt;&lt;br&gt;  
+ Stage 2 : When your par manager e-signs your par, log in to SPARROW as above → go to inbox → click on My PAR → you will be directed to self appraisal page → write your ‘self appraisal’ → click on Send to Reporting Officer&lt;br&gt;&lt;br&gt; 
+Stage 3: After completion of Reporting Officer and Reviewing officer comments the CR Section will send your APAR back to you for acceptance → Log in to https://saccess.nic with SPARROW id, password and OTP → log in to SPARROW/parichay with SPARROW id, password and OTP → select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable → click on “My PAR” → click the pending APAR → click on Officer Discloser → click on Accept if satisfied or file your representation if not satisfied → sign digitally by DSC or e-Hastakshar.</t>
+  </si>
+  <si>
+    <t>What are the necessary documents to be uploaded for NRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 MB maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register so on … which ever is applicable. </t>
+  </si>
+  <si>
+    <t>Necessary documents for NRC</t>
+  </si>
+  <si>
+    <t>Can reviewing officer report the apar</t>
+  </si>
+  <si>
+    <t>The ORU has to submit the APAR with in stipulated time i.e., 30 Apr for APAR and with in 15 days of change of reporting officer.  Failure in not creating self work flow/submitting self appraisal within the time lines, an explanation for not having performed the public duty of writing the APAR within the due date shall be called for and a written warning shall be issued to the officer by competent authority and same will be placed in APAR dossier.  In the case where Reporting Officer has not reported with in the stipulated time the APAR will be been force forwarded to Reviewing officer by the competent authrity and APAR is reviewed by Reviewing Officer and  an explanation for not having performed the public duty of reporting the APAR within the due date shall be called for from the Reporting Officer by competent authority and same will be placed in APAR dossier.</t>
+  </si>
+  <si>
+    <t>What is SPARROW id</t>
+  </si>
+  <si>
+    <t>The SPARROW ID is allocated by HRD, CBDT consisting of your part name and employee number and is linked with registred mobile number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARROW email </t>
+  </si>
+  <si>
+    <t>How to get SPARROW id</t>
+  </si>
+  <si>
+    <t>By default all the officers/officials are allocated with sparrow id. The newly joined officials have to send their details  by mentioning their Name, Emp ID, Cadre, Present office of Posting, Mobile Number to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For Hyderabad region only).</t>
+  </si>
+  <si>
+    <t>How to generate SPARROW id</t>
+  </si>
+  <si>
+    <t>By default all the officers/officials are allocated with sparrow id. The newly joined officials have to send their details  by mentioning their Name, Emp ID, Cadre, Present office of Posting, Mobile Number to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For Hyderabad region only) .</t>
+  </si>
+  <si>
+    <t>Where do I find my SPARROW credentials</t>
+  </si>
+  <si>
+    <t>Sparrow credentials are shared by HRD, CBDT to your registered mobile number.  In case forgotten please send your queries by mentioning your Name, Emp ID, Cadre, Present office of Posting, Mobile Number to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For Hyderabad region only)</t>
+  </si>
+  <si>
+    <t>Who neeeds a SPARROW id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the officers for filing APAR, NRC and IPR online are required with Sparrow credentials. </t>
+  </si>
+  <si>
+    <t>Why do we need a SPPROW id</t>
+  </si>
+  <si>
+    <t>Whom to contact if there is no SPARROW id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By default all the officers/officials are allocated with sparrow id. The newly joined officials have to send their details  by mentioning their Name, Emp ID, Cadre, Present office of Posting, Mobile Number to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For Hyderabad region only) </t>
+  </si>
+  <si>
+    <t>Who is custodian of APAR</t>
+  </si>
+  <si>
+    <t>Dy Commissioner of Income Tax (HQrs) (Vigelance), Hyderabad is the Primary Custodian of APAR</t>
+  </si>
+  <si>
+    <t>Alternate custodian</t>
+  </si>
+  <si>
+    <t>How to check the status of APAR</t>
+  </si>
+  <si>
+    <t>Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with SPARROW id, password and OTP → log in to SPARROW/parichay with SPARROW id, password and OTP → select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable → click on “My PAR”</t>
+  </si>
+  <si>
+    <t>status of APAR</t>
+  </si>
+  <si>
+    <t>Where is my APAR</t>
+  </si>
+  <si>
+    <t>Creation of self workflow</t>
+  </si>
+  <si>
+    <t>How to create workflow</t>
+  </si>
+  <si>
+    <t>Who should create workflow</t>
+  </si>
+  <si>
+    <t>Workflow has to be created by ORU him/herself by login to SPARROW portal.</t>
+  </si>
+  <si>
+    <t>What is to be choosen in Organisation posted while creating workflow</t>
+  </si>
+  <si>
+    <t>For AP&amp; Telangana charge CBDT IT AP&amp; Telangana is to be choosen as organisation</t>
+  </si>
+  <si>
+    <t>what is Organisation posted</t>
+  </si>
+  <si>
+    <t>Which one to select for Organisation posted</t>
+  </si>
+  <si>
+    <t>Who can delete the workflow already created</t>
+  </si>
+  <si>
+    <t>Can I delete Workflow already created</t>
+  </si>
+  <si>
+    <t>Can I make changes in Workflow</t>
+  </si>
+  <si>
+    <t>How to update workflow</t>
+  </si>
+  <si>
+    <t>How to make changes in Workflow</t>
+  </si>
+  <si>
+    <t>How to delete created workflow</t>
+  </si>
+  <si>
+    <t>Wat is APAR Formtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For writing APAR different forms have been prescribed for different duties assigned.  Such as Faceless, Jurisdictional, International Taxation, Audit, otherthan assessment duties, Administrative Officer/Office Superintendent, Private Secretary/Stenographer so on.  While initiating workflow, correct form is to be choosen. </t>
+  </si>
+  <si>
+    <t>Form Type APAR</t>
+  </si>
+  <si>
+    <t>How to select Form type</t>
+  </si>
+  <si>
+    <t>How to select reporting authority</t>
+  </si>
+  <si>
+    <t>Reporting authority search</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select correct reporting authority by search  option </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In “service” column choose INCOME TAX (GZTD) or INCOME TAX REVENUE SERVICE (IT) as applicable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">give input as name or employee code and click on “search” </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> select your reporting officer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> choose reviewing officer in the same method </t>
+    </r>
+  </si>
+  <si>
+    <t>How to select reviewing authority</t>
+  </si>
+  <si>
+    <t>Reviewing authority search</t>
+  </si>
+  <si>
+    <t>Basic Information in APAR</t>
+  </si>
+  <si>
+    <t>How to edit basic information</t>
+  </si>
+  <si>
+    <t>Correction of basic information can be done by Primary Custodian. While initiating APAR completeness and accuracy is necessary</t>
+  </si>
+  <si>
+    <t>Can I update basic information</t>
+  </si>
+  <si>
+    <t>Can I make changes in basic information after submission</t>
+  </si>
+  <si>
+    <t>How do I correct the errors in basic information after filling</t>
+  </si>
+  <si>
+    <t>Present Grade and date of continuous appointment to it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present Grade means the present cadre and the date of promotion to the present cadre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should I fill for Grade </t>
+  </si>
+  <si>
+    <t>What to write in Present Grade</t>
+  </si>
+  <si>
+    <t>how to file representation for filed APAR</t>
+  </si>
+  <si>
+    <t>When the APAR is disclosed to ORU after reviewing officer comments by Primary Custodian, it the ORU is not satisfied with the grading given by reporting authority, he/she can file representation in the SPARROW portal with in 15 days for disclosure of APAR to the ORU.</t>
+  </si>
+  <si>
+    <t>When to file representation</t>
+  </si>
+  <si>
+    <t>Who should I file the APAR when there are Multiple reporting and multiple reviewing officers</t>
+  </si>
+  <si>
+    <t>ORU has to initate APAR workflow if he has worked under a reporting officer more than 90 days and on every change of reporting officer.  For multiple Reveiwing officers the ORU has to : 1. If there are multiple reviewing officers available for the period of APAR, the reviewing officer who held the office for more than 90 days has to be selected.  2. If there are multiple reviewing officers available for the period of APAR, and each reviewing officer held the office for more than 90 days, then the recent reviewing officer has to be selected for reviewing the APAR for that period. 3. If there are multiple reviewing officers, and no reviewing officer held the office for more than 90 days, then the APAR need not be reviewed and  while searching the reviewing officer in the service column “No Service” and in Code  “12345TEMP “  has to be selected</t>
+  </si>
+  <si>
+    <t>Whom should I file the APAR if there are Multiple reporting officers greater than 90 days</t>
+  </si>
+  <si>
+    <t>Whom should I file the APAR if there are Multiple reporting officers less than 90 days</t>
+  </si>
+  <si>
+    <t>For the period less than 90 days worked under reporting officer, the ORU has to get NRC initiated by his PAR Manager.</t>
+  </si>
+  <si>
+    <t>Multiple reporting and one reviewing officer</t>
+  </si>
+  <si>
+    <t>ORU has to initate APAR workflow if he has worked under a reporting officer more than 90 days and on every change of reporting officer</t>
+  </si>
+  <si>
+    <t>One reporting officer and mulitple reviewing officers</t>
+  </si>
+  <si>
+    <t>How to apply for NRC</t>
+  </si>
+  <si>
+    <t>When to apply for NRC</t>
+  </si>
+  <si>
+    <r>
+      <t>Where the ORU worked under reporting officer for less than 90 days.&lt;br&gt;&lt;br&gt; 
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transfer of Officer Reported Upon (ORU) &lt;br&gt;&lt;br&gt; 
+•Transfer of Reporting Officer &lt;br&gt;&lt;br&gt; 
+•Retirement of Reporting Officer/ORU &lt;br&gt;&lt;br&gt; 
+•Period of leave/training for more than 15 days and when such leave/training period is deducted from the period worked under Reporting Officer becomes less than 90 days. &lt;br&gt;&lt;br&gt; 
+•Period of leave availed by Reporting Officer more than 15 days and such leave period is deducted from the entire period worked under reporting officer becomes less than 90 days.</t>
+    </r>
+  </si>
+  <si>
+    <t>What documents are to be enclosed while filing NRC</t>
+  </si>
+  <si>
+    <t>What if APAR is not filed on time</t>
+  </si>
+  <si>
+    <t>What is the process to file APAR</t>
+  </si>
+  <si>
+    <t>Stage 1 :  Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with SPARROW id, password and OTP → log in to SPARROW/parichay with SPARROW id, password and OTP → select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable → select “User Assistance” → select “Create Self Workflow” → create workflow → chose Organisation Posted as CBDT IT AP&amp; Telangana → select period → select APAR/NRC as applicable → select “form type” → select “Action” → select “continue” → select correct reporting authority by search   option → In “service” column choose INCOME TAX (GZTD) or INCOME TAX REVENUE SERVICE (IT) as applicable → give input as name or employee code and click on “search” → select your reporting officer → choose reviewing officer in the same method → click “save” (do not press “save and next”) → you will see comment  Workflow has been created successfully  in a new window → fill manual basic information form, put your signature → get your DDO signature → hand over to your PAR Manager. &lt;br&gt;&lt;br&gt; 
+ Stage 2 : When your par manager e-signs your par, log in to SPARROW as above → go to inbox → click on My PAR → you will be directed to self appraisal page → write your ‘self appraisal’ → click on Send to Reporting Officer&lt;br&gt;&lt;br&gt; 
+Stage 3: After completion of Reporting Officer and Reviewing officer comments the CR Section will send your APAR back to you for acceptance → Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with SPARROW id, password and OTP → log in to SPARROW/parichay with SPARROW id, password and OTP → select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable → click on “My PAR” → click the pending APAR → click on Officer Discloser → click on Accept if satisfied or file your representation if not satisfied → sign digitally by DSC or e-Hastakshar.</t>
+  </si>
+  <si>
+    <t>How to file the APAR</t>
+  </si>
+  <si>
+    <t>How to download APAR</t>
+  </si>
+  <si>
+    <t>When the APAR is disclosed to ORU after reviewing officer comments by Primary Custodian, the ORU can download the APAR from My PAR option.</t>
+  </si>
+  <si>
+    <t>How to e-sign or e-hastakshar or digital sign APAR</t>
+  </si>
+  <si>
+    <t>In SPARROW the digital signature can be done by using DSC (Digital Signature Certificate) or Aadhar based e-hastakshar.</t>
+  </si>
+  <si>
+    <t>How to e-sign APAR using DSC</t>
+  </si>
+  <si>
+    <t>What is IPR</t>
+  </si>
+  <si>
+    <t>Who should file IPR online</t>
+  </si>
+  <si>
+    <t>The IPR has to be filed by all officers up to the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable property held as on 01st January of that year.
+Rule 18(1)(ii) of the CCS (Conduct) Rules, 1964 states as under:&lt;br&gt;&lt;br&gt; 
+“(ii) Every Government servant belonging to any service or holding any post included in Group ‘A’ and Group ‘B’ shall submit an annual return in such form as may be prescribed by the Government in this regard giving full particulars regarding the immovable property inherited by him or owned or acquired by him or held by him on lease or mortgage either in his own name or in the name of any member of his family or in the name of any other person.” 
+Accordingly, all Group 'A' and Group 'B' Government servants are required to file Annual Immovable Property Return (IPR) of the previous year latest by 31st January of the following year. 
+&lt;br&gt;&lt;br&gt;
+Kind attention is also invited to DoPT OM No. 104/33/2024-A VD-IA dated 09.10.2024, which states that vigilance clearance shall be denied to an officer, if he/she fails to submit his/her annual immovable property return of the previous year by 31st January of the following year in the following cases:&lt;br&gt;&lt;br&gt; 
+I. Empanelment&lt;br&gt;&lt;br&gt; 
+ii. Ex- India study leave&lt;br&gt;&lt;br&gt; 
+iii. Any deputation for which clearance is necessary and extension there of &lt;br&gt;&lt;br&gt; 
+iv. Appointment to sensitive posts. &lt;br&gt;&lt;br&gt; 
+v. Assignments to training programmes except mandatory training &lt;br&gt;&lt;br&gt; 
+vi. Confirmation in service &lt;br&gt;&lt;br&gt; 
+vii. Retirement on VRS &lt;br&gt;&lt;br&gt; 
+viii. Post-retirement commercial employment &lt;br&gt;&lt;br&gt; 
+ix. Pre-mature repatriation (voluntary) from any deputation &lt;br&gt;&lt;br&gt; 
+Kind attention is also drawn to, the Central Vigilance Commission's Office Order No. 17/11/2020 dated 23.11.2020, circulated vide this Office letter F.No. P 329/Personnel/IPR/2020-21/754 dated 18.12.2020, mentioning that timely filing of Property Return by the officials of Ministries/Departments/Organizations is one of the mandatory requirement under CCS (Conduct) Rules and non-filing of Property Returns constitutes good and sufficient reasons for instituting disciplinary action against the delinquent officials. 
+Therefore, filing of IPR is very important for all Group-A and Group-B Government servants</t>
+  </si>
+  <si>
+    <t>How to file IPR on SPARROW portal</t>
+  </si>
+  <si>
+    <t>IPR online</t>
+  </si>
+  <si>
+    <t>How to check Status of IPR filed online</t>
+  </si>
+  <si>
+    <t>Go to SPARROW portal by log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with sparrow id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again log in in this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened select and click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.   On the left bottom of the panel IPR appear.  Click on IPR and you can view the status of submission and IPR can be downloaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If IPR is filed online, do I have to submit manual IPR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual IPR </t>
+  </si>
+  <si>
+    <t>IPR on SPARROW</t>
+  </si>
+  <si>
+    <t>How to e-sign or e-hastakshar IPR</t>
+  </si>
+  <si>
+    <t>How to make changes in IPR after filing</t>
+  </si>
+  <si>
+    <t>After filing IPR online in sparrow portal, changes can be done before last date for filing of IPR i.e., 31 January.  After the last date no changes can be done.</t>
+  </si>
+  <si>
+    <t>Modes of signing the APAR</t>
+  </si>
+  <si>
+    <t>Is signing necessary for submission of APAR</t>
+  </si>
+  <si>
+    <t>Time limit for IPR filing</t>
+  </si>
+  <si>
+    <t>How to download filed IPR</t>
+  </si>
+  <si>
+    <t>Who is APAR manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APAR Managers (Alternate custodians) are the Officers posted in HQrs of  CCIT/ PCIT/ CIT/ DGIT/ PDIT/ DIT offices. Competent Authority has passed an order time to time assigning the duties of PAR Managers and is circulated in website incometaxhyderabad.gov.in </t>
+  </si>
+  <si>
+    <t>Correction / deletion  of APAR can be done by Primary Custodian. But correction/deletion of NRC is to be done at HRD, CBDT New Delhi level only.  Hence, while creating NRC completeness and accuracy is necessary</t>
+  </si>
+  <si>
+    <t>How to generate APAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,6 +1727,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1281,7 +1762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1307,6 +1788,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1588,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:R229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="M210" sqref="M210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -1653,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1663,15 +2152,15 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -1679,15 +2168,15 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1695,31 +2184,31 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1727,15 +2216,15 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1743,12 +2232,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -1767,7 +2256,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1775,7 +2264,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1783,7 +2272,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1791,15 +2280,15 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,7 +2296,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1815,7 +2304,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1823,7 +2312,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1831,7 +2320,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1839,7 +2328,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1847,7 +2336,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1855,7 +2344,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1863,7 +2352,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +2360,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1887,7 +2376,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1895,7 +2384,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1903,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +2400,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,15 +2408,15 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1935,7 +2424,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1943,7 +2432,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1951,7 +2440,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1959,7 +2448,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1967,15 +2456,15 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1983,7 +2472,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1991,7 +2480,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1999,7 +2488,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2007,7 +2496,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2015,7 +2504,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2023,7 +2512,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2031,7 +2520,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="237" x14ac:dyDescent="0.3">
@@ -2039,7 +2528,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="237" x14ac:dyDescent="0.3">
@@ -2047,7 +2536,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2055,7 +2544,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2063,7 +2552,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2071,7 +2560,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2079,7 +2568,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2087,7 +2576,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
@@ -2095,7 +2584,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2103,7 +2592,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2111,7 +2600,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2119,7 +2608,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2135,703 +2624,1316 @@
         <v>61</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
+      <c r="A148" t="s">
+        <v>199</v>
+      </c>
+      <c r="B148" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
+      <c r="A150" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
+      <c r="A151" t="s">
+        <v>205</v>
+      </c>
+      <c r="B151" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
+      <c r="A152" t="s">
+        <v>207</v>
+      </c>
+      <c r="B152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>208</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+      <c r="A154" t="s">
+        <v>210</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
+      <c r="A155" t="s">
+        <v>212</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
+      <c r="A156" t="s">
+        <v>213</v>
+      </c>
+      <c r="B156" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
+      <c r="A157" t="s">
+        <v>215</v>
+      </c>
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
+      <c r="A158" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
+      <c r="A159" t="s">
+        <v>218</v>
+      </c>
+      <c r="B159" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
+      <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>224</v>
+      </c>
+      <c r="B162" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>227</v>
+      </c>
+      <c r="B164" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>229</v>
+      </c>
+      <c r="B165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>231</v>
+      </c>
+      <c r="B166" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>232</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>234</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>235</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>236</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>237</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>238</v>
+      </c>
+      <c r="B173" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>240</v>
+      </c>
+      <c r="B174" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>242</v>
+      </c>
+      <c r="B175" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>243</v>
+      </c>
+      <c r="B176" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>244</v>
+      </c>
+      <c r="B177" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>245</v>
+      </c>
+      <c r="B178" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>247</v>
+      </c>
+      <c r="B180" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>249</v>
+      </c>
+      <c r="B182" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>250</v>
+      </c>
+      <c r="B183" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>252</v>
+      </c>
+      <c r="B184" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>253</v>
+      </c>
+      <c r="B185" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>254</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>255</v>
+      </c>
+      <c r="B187" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>257</v>
+      </c>
+      <c r="B188" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>258</v>
+      </c>
+      <c r="B189" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>259</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>260</v>
+      </c>
+      <c r="B191" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>262</v>
+      </c>
+      <c r="B192" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>263</v>
+      </c>
+      <c r="B193" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>264</v>
+      </c>
+      <c r="B194" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B195" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>267</v>
+      </c>
+      <c r="B196" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>268</v>
+      </c>
+      <c r="B197" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>269</v>
+      </c>
+      <c r="B198" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>271</v>
+      </c>
+      <c r="B199" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>272</v>
+      </c>
+      <c r="B200" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>274</v>
+      </c>
+      <c r="B201" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>275</v>
+      </c>
+      <c r="B202" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>277</v>
+      </c>
+      <c r="B203" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>279</v>
+      </c>
+      <c r="B204" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>280</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>281</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>283</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>82</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>284</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>285</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>287</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>313</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>288</v>
+      </c>
+      <c r="B213" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>290</v>
+      </c>
+      <c r="B214" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>292</v>
+      </c>
+      <c r="B215" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>293</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>294</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>296</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>297</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>298</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>300</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>301</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>302</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>303</v>
+      </c>
+      <c r="B224" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>304</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>306</v>
+      </c>
+      <c r="B226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>307</v>
+      </c>
+      <c r="B227" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>308</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>309</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B153" r:id="rId1" display="https://saccess.nic/" xr:uid="{51FF1BCE-873B-4803-8820-15C160B4CF91}"/>
+    <hyperlink ref="B168" r:id="rId2" display="https://saccess.nic/" xr:uid="{97405B90-76D1-4859-963D-BD21D1352833}"/>
+    <hyperlink ref="B210" r:id="rId3" display="https://saccess.nic/" xr:uid="{CEEE7ADD-3E54-4127-A250-F0C0984DC727}"/>
+    <hyperlink ref="B169" r:id="rId4" display="https://saccess.nic/" xr:uid="{F6051EEE-BD55-4E15-9B66-843785F2A81D}"/>
+    <hyperlink ref="B170" r:id="rId5" display="https://saccess.nic/" xr:uid="{0EB56D92-63FB-409E-9DF9-17227C987F21}"/>
+    <hyperlink ref="B211" r:id="rId6" display="https://saccess.nic/" xr:uid="{0F5C68CE-7D94-4329-ABE5-97922EC6CCAF}"/>
+    <hyperlink ref="B212" r:id="rId7" display="https://saccess.nic/" xr:uid="{07337387-67F0-42F9-93CA-411B096EC5EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6D9E4-76F1-4DD4-A056-5431022633DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB9DE7-9909-4A2D-BE28-545D34FE4FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="311">
   <si>
     <t>hello</t>
   </si>
@@ -808,15 +808,6 @@
   </si>
   <si>
     <t>Last date for reviewing of apar</t>
-  </si>
-  <si>
-    <t>Disclosure to the officer reported upon</t>
-  </si>
-  <si>
-    <t>01st September</t>
-  </si>
-  <si>
-    <t>Disclosure to the ORU</t>
   </si>
   <si>
     <t>Representation by ORU</t>
@@ -2077,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R229"/>
+  <dimension ref="A1:R227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="M210" sqref="M210"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2157,7 +2148,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>71</v>
@@ -2173,10 +2164,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -2184,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -2237,7 +2228,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -2256,7 +2247,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2264,7 +2255,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2272,7 +2263,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2280,7 +2271,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2288,7 +2279,7 @@
         <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2296,7 +2287,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2304,7 +2295,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2312,7 +2303,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2320,7 +2311,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2328,7 +2319,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2336,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2344,7 +2335,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2352,7 +2343,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2391,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,15 +2399,15 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -2456,7 +2447,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2464,7 +2455,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2472,7 +2463,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2480,7 +2471,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2488,7 +2479,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2496,7 +2487,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2528,7 +2519,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="237" x14ac:dyDescent="0.3">
@@ -2536,7 +2527,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2680,15 +2671,15 @@
         <v>88</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2696,7 +2687,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2704,7 +2695,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2712,7 +2703,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2720,7 +2711,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2728,15 +2719,15 @@
         <v>93</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2757,7 +2748,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>95</v>
@@ -2773,7 +2764,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>95</v>
@@ -2932,7 +2923,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -2948,43 +2939,43 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2992,7 +2983,7 @@
         <v>132</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -3000,15 +2991,15 @@
         <v>133</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -3016,31 +3007,31 @@
         <v>136</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -3048,15 +3039,15 @@
         <v>140</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -3064,15 +3055,15 @@
         <v>143</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -3080,7 +3071,7 @@
         <v>146</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -3088,15 +3079,15 @@
         <v>147</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -3104,103 +3095,103 @@
         <v>150</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="B129" s="6" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+      <c r="B133" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="B134" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>195</v>
+        <v>159</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -3208,7 +3199,7 @@
         <v>162</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -3216,86 +3207,86 @@
         <v>163</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B143" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>195</v>
+        <v>168</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>196</v>
+      </c>
+      <c r="B146" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>170</v>
+        <v>198</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B149" s="9" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>202</v>
+      </c>
+      <c r="B149" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>204</v>
+      </c>
+      <c r="B150" t="s">
         <v>203</v>
       </c>
-      <c r="B150" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>205</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="10" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3303,23 +3294,23 @@
       <c r="A152" t="s">
         <v>207</v>
       </c>
-      <c r="B152" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B152" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>209</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>210</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3327,16 +3318,16 @@
       <c r="A155" t="s">
         <v>212</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>211</v>
+      <c r="B155" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>214</v>
+      </c>
+      <c r="B156" t="s">
         <v>213</v>
-      </c>
-      <c r="B156" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3352,31 +3343,31 @@
         <v>217</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>223</v>
+      </c>
+      <c r="B161" t="s">
         <v>222</v>
-      </c>
-      <c r="B161" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3392,39 +3383,39 @@
         <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B164" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="B165" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>231</v>
-      </c>
-      <c r="B166" t="s">
-        <v>311</v>
+        <v>229</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>310</v>
-      </c>
-      <c r="B167" t="s">
-        <v>311</v>
+        <v>231</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3432,47 +3423,47 @@
         <v>232</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>234</v>
-      </c>
-      <c r="B169" s="11" t="s">
         <v>233</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>235</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>235</v>
+      </c>
+      <c r="B171" t="s">
         <v>236</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>237</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>189</v>
+      <c r="B172" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>239</v>
+      </c>
+      <c r="B173" t="s">
         <v>238</v>
-      </c>
-      <c r="B173" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3480,63 +3471,63 @@
         <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B177" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B178" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B179" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B180" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>247</v>
+      </c>
+      <c r="B181" t="s">
         <v>248</v>
-      </c>
-      <c r="B181" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3544,7 +3535,7 @@
         <v>249</v>
       </c>
       <c r="B182" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3552,31 +3543,31 @@
         <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>251</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>252</v>
       </c>
-      <c r="B184" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="B185" t="s">
         <v>253</v>
       </c>
-      <c r="B185" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>254</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>65</v>
+      <c r="B186" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -3584,31 +3575,31 @@
         <v>255</v>
       </c>
       <c r="B187" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="B188" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>257</v>
       </c>
-      <c r="B188" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="B189" t="s">
         <v>258</v>
-      </c>
-      <c r="B189" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>259</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>63</v>
+      <c r="B190" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3616,23 +3607,23 @@
         <v>260</v>
       </c>
       <c r="B191" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>261</v>
+      </c>
+      <c r="B192" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B192" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B193" t="s">
         <v>263</v>
-      </c>
-      <c r="B193" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3640,23 +3631,23 @@
         <v>264</v>
       </c>
       <c r="B194" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="12" t="s">
+      <c r="A195" t="s">
         <v>265</v>
       </c>
       <c r="B195" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>266</v>
+      </c>
+      <c r="B196" t="s">
         <v>267</v>
-      </c>
-      <c r="B196" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3664,7 +3655,7 @@
         <v>268</v>
       </c>
       <c r="B197" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3696,119 +3687,119 @@
         <v>274</v>
       </c>
       <c r="B201" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>277</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="B204" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="B204" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>280</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B205" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>281</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>282</v>
+        <v>82</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>281</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>282</v>
+      </c>
+      <c r="B208" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>82</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>284</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>66</v>
+      <c r="B209" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>310</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>285</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B211" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>287</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>313</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>286</v>
+      <c r="B212" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
+        <v>289</v>
+      </c>
+      <c r="B213" t="s">
         <v>288</v>
-      </c>
-      <c r="B213" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>290</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="B215" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="B215" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3816,23 +3807,23 @@
         <v>293</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>294</v>
       </c>
-      <c r="B217" s="8" t="s">
-        <v>295</v>
+      <c r="B217" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>295</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3840,7 +3831,7 @@
         <v>297</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3848,31 +3839,31 @@
         <v>298</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>299</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>301</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>192</v>
+        <v>300</v>
+      </c>
+      <c r="B222" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>301</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3880,58 +3871,42 @@
         <v>303</v>
       </c>
       <c r="B224" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>304</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>306</v>
-      </c>
-      <c r="B226" t="s">
-        <v>291</v>
+      <c r="B226" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>307</v>
-      </c>
-      <c r="B227" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>308</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>309</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>299</v>
+        <v>306</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B153" r:id="rId1" display="https://saccess.nic/" xr:uid="{51FF1BCE-873B-4803-8820-15C160B4CF91}"/>
-    <hyperlink ref="B168" r:id="rId2" display="https://saccess.nic/" xr:uid="{97405B90-76D1-4859-963D-BD21D1352833}"/>
-    <hyperlink ref="B210" r:id="rId3" display="https://saccess.nic/" xr:uid="{CEEE7ADD-3E54-4127-A250-F0C0984DC727}"/>
-    <hyperlink ref="B169" r:id="rId4" display="https://saccess.nic/" xr:uid="{F6051EEE-BD55-4E15-9B66-843785F2A81D}"/>
-    <hyperlink ref="B170" r:id="rId5" display="https://saccess.nic/" xr:uid="{0EB56D92-63FB-409E-9DF9-17227C987F21}"/>
-    <hyperlink ref="B211" r:id="rId6" display="https://saccess.nic/" xr:uid="{0F5C68CE-7D94-4329-ABE5-97922EC6CCAF}"/>
-    <hyperlink ref="B212" r:id="rId7" display="https://saccess.nic/" xr:uid="{07337387-67F0-42F9-93CA-411B096EC5EB}"/>
+    <hyperlink ref="B151" r:id="rId1" display="https://saccess.nic/" xr:uid="{51FF1BCE-873B-4803-8820-15C160B4CF91}"/>
+    <hyperlink ref="B166" r:id="rId2" display="https://saccess.nic/" xr:uid="{97405B90-76D1-4859-963D-BD21D1352833}"/>
+    <hyperlink ref="B208" r:id="rId3" display="https://saccess.nic/" xr:uid="{CEEE7ADD-3E54-4127-A250-F0C0984DC727}"/>
+    <hyperlink ref="B167" r:id="rId4" display="https://saccess.nic/" xr:uid="{F6051EEE-BD55-4E15-9B66-843785F2A81D}"/>
+    <hyperlink ref="B168" r:id="rId5" display="https://saccess.nic/" xr:uid="{0EB56D92-63FB-409E-9DF9-17227C987F21}"/>
+    <hyperlink ref="B209" r:id="rId6" display="https://saccess.nic/" xr:uid="{0F5C68CE-7D94-4329-ABE5-97922EC6CCAF}"/>
+    <hyperlink ref="B210" r:id="rId7" display="https://saccess.nic/" xr:uid="{07337387-67F0-42F9-93CA-411B096EC5EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVN MURTHY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\OneDrive\Desktop\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B1CDA-C030-4619-983D-91BB5F720A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9345"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1875,9 +1876,6 @@
     <t>Why I am not able to log in</t>
   </si>
   <si>
-    <t>Rest SPARROW password use this link: &lt;a href="https://passapp.email.gov.in/passapp/"&gt;https://passapp.email.gov.in/passapp/&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Getting Login error what should I do</t>
   </si>
   <si>
@@ -1903,12 +1901,15 @@
   </si>
   <si>
     <t>SPARROW credentials are shared by HRD, CBDT to your registered mobile number.  In case the SPARROW ID is forgotten, please send your queries by mentioning your Name, Emp ID, Cadre, Present office of Posting, Mobile Number to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For AP &amp; Telangana region)</t>
+  </si>
+  <si>
+    <t>Reset SPARROW password use this link: &lt;a href="https://passapp.email.gov.in/passapp/"&gt;https://passapp.email.gov.in/passapp/&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2040,7 +2041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2066,7 +2067,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2075,7 +2076,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2363,20 +2363,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>207</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>209</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>285</v>
       </c>
@@ -2416,75 +2416,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>214</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>283</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>276</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>201</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>277</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>286</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>202</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>287</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>203</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>272</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>273</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>274</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>278</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>279</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>288</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>289</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>290</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>291</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>280</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>292</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>221</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="127.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="127.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="127.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="127.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>293</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>294</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>295</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>296</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>297</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>27</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>230</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>30</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>298</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>33</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>34</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>35</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>299</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>36</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>37</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>204</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>105</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>300</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>301</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>38</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>39</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>40</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>302</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>41</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>42</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>106</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>43</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>107</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>44</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>45</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>47</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>48</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>49</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>50</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>52</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>53</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>54</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>55</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>57</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>58</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>59</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>284</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>61</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>303</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>62</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>63</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>66</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>68</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>69</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>70</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>71</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>72</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>73</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>75</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>76</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>79</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>108</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>80</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>304</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>82</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>84</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>85</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>86</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>88</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>89</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>281</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>90</v>
       </c>
@@ -3420,63 +3420,63 @@
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>308</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="B137" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>91</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>92</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>93</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>111</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>94</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>95</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>96</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>98</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>99</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>100</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>110</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>101</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>102</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>114</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>313</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>205</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>115</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>116</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>117</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>119</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>120</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>253</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>122</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>124</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>125</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>314</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>126</v>
       </c>
@@ -3708,31 +3708,31 @@
         <v>248</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>127</v>
       </c>
       <c r="B167" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>321</v>
+      </c>
+      <c r="B168" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>322</v>
       </c>
-      <c r="B168" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>323</v>
-      </c>
       <c r="B169" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>128</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>129</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>130</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>131</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>133</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>197</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>134</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>311</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>136</v>
       </c>
@@ -3804,23 +3804,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A179" s="12" t="s">
+    <row r="179" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>137</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
+    <row r="180" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>138</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>139</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>140</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>275</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>141</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>142</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>143</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>145</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>146</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>147</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>259</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>149</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>150</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>151</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>152</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>154</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>155</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>156</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>157</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>158</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>160</v>
       </c>
@@ -3996,15 +3996,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="15" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B203" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>163</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>164</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>282</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>165</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>166</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>168</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>169</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>171</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>172</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>173</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>174</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>175</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>176</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>177</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>198</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>178</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>180</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>182</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>184</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>186</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>187</v>
       </c>
@@ -4196,15 +4196,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>188</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>189</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>312</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>190</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>191</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>192</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>193</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>194</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>195</v>
       </c>
@@ -4268,25 +4268,25 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>196</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="13" t="s">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B157" r:id="rId1" display="https://saccess.nic/"/>
-    <hyperlink ref="B176" r:id="rId2" display="https://saccess.nic/"/>
-    <hyperlink ref="B177" r:id="rId3" display="https://saccess.nic/"/>
-    <hyperlink ref="B178" r:id="rId4" display="https://saccess.nic/"/>
-    <hyperlink ref="B179" r:id="rId5" display="https://saccess.nic/"/>
-    <hyperlink ref="B180" r:id="rId6" display="https://saccess.nic/"/>
-    <hyperlink ref="B218" r:id="rId7" display="https://saccess.nic/"/>
-    <hyperlink ref="B219" r:id="rId8" display="https://saccess.nic/"/>
-    <hyperlink ref="B220" r:id="rId9" display="https://saccess.nic/"/>
+    <hyperlink ref="B157" r:id="rId1" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B176" r:id="rId2" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B177" r:id="rId3" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B178" r:id="rId4" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B179" r:id="rId5" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B180" r:id="rId6" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B218" r:id="rId7" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B219" r:id="rId8" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B220" r:id="rId9" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -4294,46 +4294,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="243.5703125" customWidth="1"/>
+    <col min="1" max="1" width="243.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="69.599999999999994" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="https://saccess.nic/"/>
+    <hyperlink ref="A16" r:id="rId1" display="https://saccess.nic/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVN MURTHY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVN MURTHY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="5565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="249">
   <si>
     <t>Hi there! How can I assist you today?</t>
   </si>
@@ -96,9 +96,6 @@
     <t>How to get email-ids for login into SPARROW portal</t>
   </si>
   <si>
-    <t>For obtaining NIC email-id, the basic details of officer should be sent through respective Pr.CCIT(CCA) office to HRD. Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 Email id Official (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
-  </si>
-  <si>
     <t>How to get log in ID</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Who is ORU</t>
   </si>
   <si>
-    <t>Is it compulsory to fill apar</t>
-  </si>
-  <si>
     <t>Form for International Taxation</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
   </si>
   <si>
     <t>Delete workflow</t>
-  </si>
-  <si>
-    <t>How to submit apar</t>
   </si>
   <si>
     <t>Stage 1 :  Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with SPARROW id, password and OTP → log in to SPARROW/parichay with SPARROW id, password and OTP → select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable → select “User Assistance” → select “Create Self Workflow” → create workflow → chose Organisation Posted as CBDT IT AP&amp; Telangana → select period → select APAR/NRC as applicable → select “form type” → select “Action” → select “continue” → select correct reporting authority by search   option → In “service” column choose INCOME TAX (GZTD) or INCOME TAX REVENUE SERVICE (IT) as applicable → give input as name or employee code and click on “search” → select your reporting officer → choose reviewing officer in the same method → click “save” (do not press “save and next”) → you will see comment  Workflow has been created successfully  in a new window → fill manual basic information form, put your signature → get your DDO signature → hand over to your PAR Manager.&lt;br&gt;&lt;br&gt;  
@@ -218,15 +209,9 @@
     <t>What are the necessary documents to be uploaded for NRC</t>
   </si>
   <si>
-    <t>Can reviewing officer report the apar</t>
-  </si>
-  <si>
     <t>What is SPARROW id</t>
   </si>
   <si>
-    <t>The SPARROW ID is allocated by HRD, CBDT consisting of your part name and employee number and is linked with registred mobile number.</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPARROW email </t>
   </si>
   <si>
@@ -236,9 +221,6 @@
     <t>Where do I find my SPARROW credentials</t>
   </si>
   <si>
-    <t>Who neeeds a SPARROW id</t>
-  </si>
-  <si>
     <t>Why do we need a SPPROW id</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>Who is custodian of APAR</t>
   </si>
   <si>
-    <t>Dy Commissioner of Income Tax (HQrs) (Vigelance), Hyderabad is the Primary Custodian of APAR</t>
-  </si>
-  <si>
     <t>Alternate custodian</t>
   </si>
   <si>
@@ -264,9 +243,6 @@
   </si>
   <si>
     <t>Who should create workflow</t>
-  </si>
-  <si>
-    <t>What is to be choosen in Organisation posted while creating workflow</t>
   </si>
   <si>
     <t>Who can delete the workflow already created</t>
@@ -413,9 +389,6 @@
   </si>
   <si>
     <t>Multiple reporting and one reviewing officer</t>
-  </si>
-  <si>
-    <t>One reporting officer and mulitple reviewing officers</t>
   </si>
   <si>
     <t>How to apply for NRC</t>
@@ -506,9 +479,6 @@
     <t>SPARROW mobile number</t>
   </si>
   <si>
-    <t>Who has to fill apar in SPARROW</t>
-  </si>
-  <si>
     <t>Can I use my income tax mail id for SPARROW</t>
   </si>
   <si>
@@ -522,9 +492,6 @@
   </si>
   <si>
     <t>How are you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Log in to&lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again Log in to this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened, click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable </t>
   </si>
   <si>
     <t>SPARROW Mobile number is the one which is registered with SPARROW ID</t>
@@ -1169,38 +1136,10 @@
     </r>
   </si>
   <si>
-    <t>1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with SPARROW ID, password and OTP and then  log in to SPARROW/Parichay with same SPARROW ID, password and newly generated OTP. &lt;br&gt;&lt;br&gt; 2.Select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable. &lt;br&gt;&lt;br&gt;3. Select “workflow”, select “create/update”, search by employee name,  click on “create workflow”.&lt;br&gt;&lt;br&gt;4.  Select NRC in "Status" tab . &lt;br&gt;&lt;br&gt;5. After creating NRC workflow, Reporting Period from, Reporting Period to, Reporting Officer Name and Reporting Officer Designation have to be filled.  In the remarks column,  correct reason for requesting NRC is to be selected.  In the comments box, a descriptive reason for NRC is to be mentioned along with the office in which ORU is posted.   In the Reference upload,  the CTC copy/transfer order/leave application for more than 15 days etc of self or reporting officer where ever applicable are to be uploaded in PDF format (less than 3 MB size).&lt;br&gt;&lt;br&gt;6. Click on “Save as Draft”.  &lt;br&gt;&lt;br&gt;7.Click “send to Competnet Authority”, then sign digitally by DSC or e-Hastakshar.</t>
-  </si>
-  <si>
     <t xml:space="preserve">If the ORU worked under any Reporting Officer for a period less than 90 days due to:&lt;br&gt; 1. Transfer of Officer Reported Upon (ORU). &lt;br&gt;&lt;br&gt;2. Transfer of Reporting Officer &lt;br&gt;&lt;br&gt;3. Retirement of Reporting Officer/ORU &lt;br&gt;&lt;br&gt;4. Period of leave availed/training for more than 15 days and when such leave/training period is deducted from the total period worked under Reporting Officer, the balance period becomes less than 90 days&lt;br&gt;&lt;br&gt;  5. Period of leave availed by Reporting Officer more than 15 days and when such leave/training period is deducted from the total period worked under Reporting Officer, the balance period becomes less than 90 days. </t>
   </si>
   <si>
     <t>Your supervisory officer is your Reporting Officer.  For initiating APAR you have to work for more than 90 days under one Reporting Officer.  Whenever the reporting officer is changed due to ORU transfer, Reporting Officer transfer or ORU retirement or Reporting officer retirement, the PAR has to be initiated for that period  (if the period is more than 90 days)  within 15 days of such event.</t>
-  </si>
-  <si>
-    <r>
-      <t>1.  Generation of Basic Information by PAR Manager : 15th April&lt;/br&gt;&lt;/br&gt; 2. Submission of Self Appraisal by ORU: 30</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> April.&lt;/br&gt;&lt;/br&gt;
-3.Whenever part APAR is to be initiated due to self transfer / retirement/transfer of Reporting Officer, the part APAR has to be initiated within 15 days from such event.</t>
-    </r>
   </si>
   <si>
     <t>The APAR is an important document for the future promotion/ assessing the conduct of the officer. The APAR has to be initiated and submitted within timelines. Failure in not creating self work flow/submitting self appraisal within the time lines, an explanation for not having performed the public duty of writing the APAR within the due date shall be called for and a written warning shall be issued to the officer by competent authority and same will be placed in APAR dossier of the ORU.</t>
@@ -1220,117 +1159,15 @@
     <t>All the officers and officials  have to compulsorily fill APAR online in SPARROW portal from the APAR year 2024-25.</t>
   </si>
   <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Where Reporting officer transferred out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: “ I have worked as............... (cadre) in O/o.............under the reporting officer Sri ……… (Name, Designation), Range…..….. from   date…….to……. date and the reporting officer was relieved on transfer on dt ………..  As the period worked under the reporting officer is less than 90 days, NRC for this period is requested”  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(please upload Transfer order/CTC copy in reference upload</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) 
-•</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Where ORU transferred ou</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t: “  I have worked as............... (cadre) in O/o.............under the reporting officer Sri ……… (Name, Designation), Range…..…....  from   date……. to……. date.  I have been transferred to O/o………… vide transfer order dt……………             and relived on date………………  As the period worked under the reporting officer is less than 90 days, NRC for this period is requested” (please upload transfer order/CTC copy in reference upload)
-•</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Where there are multiple reporting officers (in charge officers)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: “  I have worked as............... (cadre) in O/o.............under the reporting officer Sri ……… (Name, Designation), Range…..….. from ……..to……… , SSri ……… (Name, Designation), Range…..….. from ……..to……… , and  Sri ……… (Name, Designation), Range…..….. from ……..to……… , from……………. to………….  As there are multiple reporting officers and the period worked under each officer is less than 90 days, NRC is requested.” (please upload all the CTC copies of reporting officers in reference upload). </t>
-    </r>
-  </si>
-  <si>
     <t>These Guidelines have been prepared on the basis of extant instructions/letters issued by Department of Personnel &amp; Training (DoPT) and Directorate of Income-tax (Human Resource Development), CBDT. In case of any variance between these Guidelines and instructions/letters issued by DoPT/Directorate of Income-tax (Human Resource Development), the latter shall prevail.</t>
   </si>
   <si>
-    <t>For obtaining NIC email-id, the basic details of ORU should be sent through their name based email id to the DCIT (HQrs)(Vig). Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 Official email id (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
-  </si>
-  <si>
     <t>For e-signing, DSC or Aadhar based e-hasthakshar may be used.</t>
   </si>
   <si>
-    <t xml:space="preserve">IPR has to be filed in SPARROW portal by log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again Log in to this page with same SPARROW User ID, Password and newly generated OTP. When the new page is opened,  click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  Click on  "IPR" appearing on the left bottom of the panel . File the IPR either by filling online or by uploading presigned PDF of the IPR return. </t>
-  </si>
-  <si>
     <t>The IPR has to be filed by all officers up to the cadres of Group B Non Gazetted compulsorily  before 31st January every year  with details of immovable property held as on 01st January of that year.</t>
   </si>
   <si>
-    <t xml:space="preserve">Once IPR is submitted Iin SPARROW portal, copy of the IPR need not to be sent anywhere. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPR is to be filed in SPARROW portal.&lt;br&gt;&lt;br&gt;1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP. The SPARROW/Parichay opens.&lt;br&gt;&lt;br&gt; 2.Again Log in to this page with same SPARROW User ID and Password and newly generated OTP.&lt;br&gt;&lt;br&gt;3. When the new page is opened click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  &lt;br&gt;&lt;br&gt;4. "IPR" appears on the left bottom of the panel .  File the IPR either by filling online or by uploading presigned PDF of the IPR return. </t>
-  </si>
-  <si>
     <t>Officer Reported Upon.</t>
   </si>
   <si>
@@ -1343,15 +1180,6 @@
     <t>By default all the officers/officials are allocated with SPARROW id. The newly joined officials have to send their details  by mentioning their Name, Emp ID, Cadre, Present office of Posting, Mobile Number to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For AP &amp; Telangana region) .</t>
   </si>
   <si>
-    <t>The wrongly created APAR can be deleted by the Primary Custodian upto the stage of Self Appraisal.  Once self appraisal is submitted, it has to be deleted by HRD, CBDT only.  Please send the details of PAR period to &lt;b&gt;&lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For AP &amp; Telangana region)&lt;b&gt; with details of ORU such as Name, Emp ID, Cadre, Present office where posted, Mobile Number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 MB maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register etc. which ever is applicable. </t>
-  </si>
-  <si>
-    <t>The ORU has to submit the APAR with in stipulated time i.e., 30 Apr for APAR and with in 15 days of change of reporting officer.  Failure in not creating self work flow/submitting self appraisal within the time lines, an explanation for not having performed the public duty of writing the APAR within the due date shall be called for and a written warning shall be issued to the officer by competent authority and same will be placed in APAR dossier.  In the case where Reporting Officer has not reported with in the stipulated time the APAR will be been force forwarded to Reviewing officer by the competent authrity and APAR is reported by Reviewing Officer and  an explanation for not having performed the public duty of reporting the APAR within the due date shall be called for from the Reporting Officer by competent authority and same will be placed in APAR dossier.</t>
-  </si>
-  <si>
     <t>Can reviewing officer act as reporting officer</t>
   </si>
   <si>
@@ -1364,25 +1192,13 @@
     <t>Workflow has to be created by ORU him/herself by login to SPARROW portal. PAR Managers may be contacted in case of difficulty in creating workflow.</t>
   </si>
   <si>
-    <t>For AP&amp; Telangana charge "CBDT IT AP&amp; Telangana" is to be choosen as organisation</t>
-  </si>
-  <si>
     <t>Deletion  of APAR workflow can be done by Primary Custodian. But deletion of NRC is to be done at HRD, CBDT New Delhi level only.  Hence, while creating NRC completeness and accuracy is necessary</t>
   </si>
   <si>
-    <t>Wat is APAR Form type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For writing APAR different forms have been prescribed for different duties assigned.  Such as Faceless, Jurisdictional, International Taxation, Audit, otherthan assessment duties, Administrative Officer/Office Superintendent, Private Secretary/Stenographer etc.  While initiating workflow, correct form is to be choosen. </t>
-  </si>
-  <si>
     <t>Your supervisory officer is your Reporting Officer.  For initiating APAR you have to work for more than 90 days under one Reporting Officer.  Whenever the reporting officer is changed due to ORU transfer, Reporting Officer transfer or ORU retirement or Reporting officer retirement the PAR has to be initiated for that period  (if the period is more than 90 days) within 15 days of such event.</t>
   </si>
   <si>
     <t>Correction of basic information can be done by Primary Custodian. However, while initiating APAR completeness and accuracy is necessary.</t>
-  </si>
-  <si>
-    <t>ORU has to initate APAR workflow if he has worked under a reporting officer more than 90 days and on every change of reporting officer.  For multiple Reveiwing officers the ORU has to : If there are multiple reviewing officers available for the period of APAR, the reviewing officer who held the office for more than 90 days and in service has only to be selected.  If there are multiple reviewing officers available for the period of APAR, and each reviewing officer held the office for more than 90 days, then the recent reviewing officer in service has to be selected for reviewing the APAR for that period.  If there are multiple reviewing officers, and no reviewing officer held the office for more than 90 days, then the APAR need not be reviewed and you have to select NO REVIEWING AUTHORITY.</t>
   </si>
   <si>
     <t>For the period less than 90 days  under any reporting officer, the ORU has to get their NRC initiated in sparrow portal</t>
@@ -1420,9 +1236,6 @@
     <t>Go to SPARROW portal by log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again Log in to this page with same SPARROW User ID and Password and newly generated OTP. When the new page is opened click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.   "IPR" appears on the left bottom of the panel.  Click on IPR and you can view the status of submission and IPR can be downloaded.</t>
   </si>
   <si>
-    <t>After filing IPR online in SPARROW portal, changes can be done before last date for filing of IPR i.e., 31 January.  After the last date no changes can be done. Proceedure for changing the IPR before due date is same as fresh filing of IPR.</t>
-  </si>
-  <si>
     <t>What is SPARROW</t>
   </si>
   <si>
@@ -1438,9 +1251,6 @@
     <t>How to log in SPARROW</t>
   </si>
   <si>
-    <t>How to file apar</t>
-  </si>
-  <si>
     <t>How to create work flow</t>
   </si>
   <si>
@@ -1495,9 +1305,6 @@
     <t>Log in failed</t>
   </si>
   <si>
-    <t>Wrong apar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manual IPR </t>
   </si>
   <si>
@@ -1522,9 +1329,6 @@
     <t>How to I log in to Parichay portal</t>
   </si>
   <si>
-    <t xml:space="preserve">First Log in to&lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again Log in to this page with </t>
-  </si>
-  <si>
     <t>Where can I check my SPARROW id</t>
   </si>
   <si>
@@ -1540,30 +1344,12 @@
     <t>When review of APAR is not required</t>
   </si>
   <si>
-    <t>What are the situations where no review to be choosen</t>
-  </si>
-  <si>
     <t>Submission of self appraisal to reporting officer by officer reported upon</t>
   </si>
   <si>
-    <t>On or before 30 th April</t>
-  </si>
-  <si>
     <t>Last date for Submission of self appraisal by ORU</t>
   </si>
   <si>
-    <t>Last date for reporting of apar by Reporting Officer</t>
-  </si>
-  <si>
-    <t>On or before 30 th June</t>
-  </si>
-  <si>
-    <t>Last date for reviewing of apar by reviewing officer</t>
-  </si>
-  <si>
-    <t>On or before 31 st July</t>
-  </si>
-  <si>
     <t>login to SPARROW</t>
   </si>
   <si>
@@ -1583,12 +1369,6 @@
   </si>
   <si>
     <t>The  officials have to send their details  by mentioning their Name, Emp ID, Cadre, Present office of Posting, Mobile Number to &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For AP &amp; Telangana region).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For writing APAR, different forms have been prescribed by HRD, CBDT as per the duties assigned  to the ORU.  For example Faceless, Jurisdictional, International Taxation, Audit, otherthan assessment duties, Administrative Officer/Office Superintendent, Private Secretary/Stenographer etc.  While initiating workflow, correct form is to be choosen by ORU. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORU has to initate APAR workflow if he has worked under a reporting officer for more than 90 days and on every change of reporting officer.  </t>
   </si>
   <si>
     <t>Whom should I file the APAR to, if there are Multiple reporting officers  with more than 90 days in office.</t>
@@ -1638,34 +1418,6 @@
 Form-4(a) (Principal Commissioner of Income Tax/ Commissioner of Income Tax) (Faceless Assessment Units/ Jurisdictional Assessment Units)</t>
   </si>
   <si>
-    <r>
-      <t>The Supervisory officer of your Reporting Officer is the reviewing officer.  If the reviewing officer is changed, &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>APAR need not be initiated when the Reviewing Officer is changed.  As the APAR is based on Reporting Officer's supervision only.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/b&gt;  If there are multiple reviewing officers available for the period of APAR, the reviewing officer who held the office for more than 90 days and in service has only to be selected.&lt;br&gt;&lt;br&gt;  If there are multiple reviewing officers available for the period of APAR, and each reviewing officer held the office for more than 90 days, then the recent reviewing officer in service has to be selected for reviewing the APAR for that period.&lt;br&gt;&lt;br&gt;  If there are multiple reviewing officers, and no reviewing officer held the office for more than 90 days, then the APAR need not be reviewed and you have to select NO REVIEWING AUTHORITY.</t>
-    </r>
-  </si>
-  <si>
-    <t>When the APAR is disclosed to ORU by Primary Custodian after reviewing officer comments, if the ORU is not satisfied with the grading awarded, he/she can file representation in the SPARROW portal with in 15 days of disclosure of APAR to the ORU.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Form 1  (Deputy/Assistant Commissioner or Deputy/Assistant Director of Income Tax/ Income Tax Officer and equivalent) (Other than Assessing Officer)&lt;br&gt;&lt;br&gt;
 Form 2 (Joint/Additional Commissioner or Joint/Additional Director of Income Tax and equivalent)(Non-Assessment)&lt;br&gt;&lt;br&gt;
 Form 4  (Principal Commissioner of Income Tax or Principal Director of Income Tax Commissioner of Income Tax or Director of Income Tax and equivalent posted in non-field formations including Directorates and ITAT) </t>
@@ -1679,17 +1431,131 @@
     <t>The log in ID for SPARROW is separately created and was communicated to your registered mobile number. For any queries contact  &lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For AP &amp; Telangana region) by mentioning your Name, Emp ID, Cadre, Present office where posted, Mobile Number.</t>
   </si>
   <si>
-    <t xml:space="preserve">The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 mb maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register etc. which ever is applicable. </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. After Log in to Parichay, from the left side panel, select "Workflow" and then "Create/Update Workflow" &lt;br&gt;&lt;br&gt;2. Search by employee name or Employee ID.  Click on "Create Workflow".&lt;br&gt;&lt;br&gt;3.  Select correct Assessment period.&lt;br&gt;&lt;br&gt;4. Select APAR/NRC as applicable.&lt;br&gt;&lt;br&gt;5. Select correct form type.&lt;br&gt;&lt;br&gt;6. Click “Action” button and then "Continue".  Here select correct reporting authority by search  option on the right side.  New window for search option will open. &lt;br&gt;&lt;br&gt;7. In the search window  “service” to be chosen as  INCOME TAX (GZTD) if your reporting officer is Group B Gazetted officer and " INDIAN REVENUE SERVICE (IT) IRS (IT)" if your reporting officer is IRS officer . Give input as name or employee code and press  “search”. From the search result select your reporting officer. Choose reviewing officer in the same method.  Click “save” (do not press “save and next”) .  You will see the comment "Workflow has been created successfully" in a new window. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 mb maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register etc. whichever is applicable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supporting document for NRC request has to be uploaded compulsorily.  Upload the document in “Reference Upload” (only PDF files with 3 MB maximum size).  The documents are  Reporting officer’s CTC/ Self CTC/ Self Transfer order/ Promotion order/ approved leave application of more than 15 days/ joining time entry in Service register etc. whichever is applicable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Where Reporting officer transferred out: “ I have worked as............... (cadre) in O/o.............under the reporting officer Sri ……… (Name, Designation), Range…..….. from   date…….to……. date and the reporting officer was relieved on transfer on dt ………..  As the period worked under the reporting officer is less than 90 days, NRC for this period is requested”  (please upload Transfer order/CTC copy in reference upload) 
+•Where ORU transferred out: “  I have worked as............... (cadre) in O/o.............under the reporting officer Sri ……… (Name, Designation), Range…..…....  from   date……. to……. date.  I have been transferred to O/o………… vide transfer order dt……………             and relived on date………………  As the period worked under the reporting officer is less than 90 days, NRC for this period is requested” (please upload transfer order/CTC copy in reference upload)
+•Where there are multiple reporting officers (in charge officers): “  I have worked as............... (cadre) in O/o.............under the reporting officer Sri ……… (Name, Designation), Range…..….. from ……..to……… , Sri ……… (Name, Designation), Range…..….. from ……..to……… , and  Sri ……… (Name, Designation), Range…..….. from ……..to……… , from……………. to………….  As there are multiple reporting officers and the period worked under each officer is less than 90 days, NRC is requested.” (please upload all the CTC copies of reporting officers in reference upload). </t>
+  </si>
+  <si>
+    <t>What are the situations where no review to be chosen</t>
+  </si>
+  <si>
+    <t>What is to be chosen in Organisation posted while creating workflow</t>
+  </si>
+  <si>
+    <t>For AP&amp; Telangana charge "CBDT IT AP&amp; Telangana" is to be chosen as organisation</t>
+  </si>
+  <si>
+    <t>1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with SPARROW ID, password and OTP and then  log in to SPARROW/Parichay with same SPARROW ID, password and newly generated OTP. &lt;br&gt;&lt;br&gt; 2.Select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable. &lt;br&gt;&lt;br&gt;3. Select “workflow”, select “create/update”, search by employee name,  click on “create workflow”.&lt;br&gt;&lt;br&gt;4.  Select NRC in "Status" tab . &lt;br&gt;&lt;br&gt;5. After creating NRC workflow, Reporting Period from, Reporting Period to, Reporting Officer Name and Reporting Officer Designation have to be filled.  In the remarks column,  correct reason for requesting NRC is to be selected.  In the comments box, a descriptive reason for NRC is to be mentioned along with the office in which ORU is posted.   In the Reference upload,  the CTC copy/transfer order/leave application for more than 15 days etc of self or reporting officer where ever applicable are to be uploaded in PDF format (less than 3 MB size).&lt;br&gt;&lt;br&gt;6. Click on “Save as Draft”.  &lt;br&gt;&lt;br&gt;7.Click “send to Competent Authority”, then sign digitally by DSC or e-Hastakshar.</t>
+  </si>
+  <si>
+    <t>After filing IPR online in SPARROW portal, changes can be done before last date for filing of IPR i.e., 31 January.  After the last date no changes can be done. Procedure for changing the IPR before due date is same as fresh filing of IPR.</t>
+  </si>
+  <si>
+    <t>Who needs a SPARROW id</t>
+  </si>
+  <si>
+    <t>Dy Commissioner of Income Tax (HQrs) (Vigilance), Hyderabad is the Primary Custodian of APAR</t>
+  </si>
+  <si>
+    <t>For obtaining NIC email-id, the basic details of officer should be sent through respective Pr.CCIT(CCA) office to HRD. Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 email ID Official (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
+  </si>
+  <si>
+    <t>For obtaining NIC email-id, the basic details of ORU should be sent through their name based email ID to the DCIT (HQrs)(Vig). Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 Official email ID (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For writing APAR different forms have been prescribed for different duties assigned.  Such as Faceless, Jurisdictional, International Taxation, Audit, other than assessment duties, Administrative Officer/Office Superintendent, Private Secretary/Stenographer etc.  While initiating workflow, correct form is to be chosen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For writing APAR, different forms have been prescribed by HRD, CBDT as per the duties assigned  to the ORU.  For example Faceless, Jurisdictional, International Taxation, Audit, other than assessment duties, Administrative Officer/Office Superintendent, Private Secretary/Stenographer etc.  While initiating workflow, correct form is to be chosen by ORU. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPR has to be filed in SPARROW portal by log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again Log in to this page with same SPARROW User ID, Password and newly generated OTP. When the new page is opened,  click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  Click on  "IPR" appearing on the left bottom of the panel . File the IPR either by filling online or by uploading pre-signed PDF of the IPR return. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPR is to be filed in SPARROW portal.&lt;br&gt;&lt;br&gt;1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP. The SPARROW/Parichay opens.&lt;br&gt;&lt;br&gt; 2.Again Log in to this page with same SPARROW User ID and Password and newly generated OTP.&lt;br&gt;&lt;br&gt;3. When the new page is opened click on Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable.  &lt;br&gt;&lt;br&gt;4. "IPR" appears on the left bottom of the panel .  File the IPR either by filling online or by uploading pre-signed PDF of the IPR return. </t>
+  </si>
+  <si>
+    <t>On or before 30th June</t>
+  </si>
+  <si>
+    <t>On or before 31st July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once IPR is submitted in SPARROW portal, copy of the IPR need not to be sent anywhere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORU has to initiate APAR workflow if he has worked under a reporting officer for more than 90 days and on every change of reporting officer.  </t>
+  </si>
+  <si>
+    <t>ORU has to initiate APAR workflow if he has worked under a reporting officer more than 90 days and on every change of reporting officer.  For multiple Reviewing officers the ORU has to : If there are multiple reviewing officers available for the period of APAR, the reviewing officer who held the office for more than 90 days and in service has only to be selected.  If there are multiple reviewing officers available for the period of APAR, and each reviewing officer held the office for more than 90 days, then the recent reviewing officer in service has to be selected for reviewing the APAR for that period.  If there are multiple reviewing officers, and no reviewing officer held the office for more than 90 days, then the APAR need not be reviewed and you have to select NO REVIEWING AUTHORITY.</t>
+  </si>
+  <si>
+    <t>One reporting officer and multiple reviewing officers</t>
+  </si>
+  <si>
+    <t>The SPARROW ID is allocated by HRD, CBDT consisting of your part name and employee number and is linked with registered mobile number.</t>
+  </si>
+  <si>
+    <t>The wrongly created APAR can be deleted by the Primary Custodian up to the stage of Self Appraisal.  Once self appraisal is submitted, it has to be deleted by HRD, CBDT only.  Please send the details of PAR period to &lt;b&gt;&lt;b&gt;hyderabad.dcit.hq.vig@incometax.gov.in&lt;b&gt; (For AP &amp; Telangana region)&lt;b&gt; with details of ORU such as Name, Emp ID, Cadre, Present office where posted, Mobile Number.</t>
+  </si>
+  <si>
+    <t>The ORU has to submit the APAR within stipulated time i.e., 30 Apr for APAR and within 15 days of change of reporting officer.  Failure in not creating self work flow/submitting self appraisal within the time lines, an explanation for not having performed the public duty of writing the APAR within the due date shall be called for and a written warning shall be issued to the officer by competent authority and same will be placed in APAR dossier.  In the case where Reporting Officer has not reported within the stipulated time the APAR will be been force forwarded to Reviewing officer by the competent authority and APAR is reported by Reviewing Officer and  an explanation for not having performed the public duty of reporting the APAR within the due date shall be called for from the Reporting Officer by competent authority and same will be placed in APAR dossier.</t>
+  </si>
+  <si>
+    <t>When the APAR is disclosed to ORU by Primary Custodian after reviewing officer comments, if the ORU is not satisfied with the grading awarded, he/she can file representation in the SPARROW portal within 15 days of disclosure of APAR to the ORU.</t>
+  </si>
+  <si>
+    <t>What is APAR Form type</t>
+  </si>
+  <si>
+    <t>How to file APAR</t>
+  </si>
+  <si>
+    <t>1.  Generation of Basic Information by PAR Manager : 15th April&lt;/br&gt;&lt;/br&gt; 2. Submission of Self Appraisal by ORU: 30th April.&lt;/br&gt;&lt;/br&gt;
+3.Whenever part APAR is to be initiated due to self transfer / retirement/transfer of Reporting Officer, the part APAR has to be initiated within 15 days from such event.</t>
+  </si>
+  <si>
+    <t>Who has to fill APAR in SPARROW</t>
+  </si>
+  <si>
+    <t>Is it compulsory to fill APAR</t>
+  </si>
+  <si>
+    <t>Last date for reporting of APAR by Reporting Officer</t>
+  </si>
+  <si>
+    <t>Last date for reviewing of APAR by reviewing officer</t>
+  </si>
+  <si>
+    <t>How to submit APAR</t>
+  </si>
+  <si>
+    <t>Can reviewing officer report the APAR</t>
+  </si>
+  <si>
+    <t>The Supervisory officer of your Reporting Officer is the reviewing officer.  If the reviewing officer is changed, &lt;b&gt;APAR need not be initiated when the Reviewing Officer is changed.  As the APAR is based on Reporting Officer's supervision only.&lt;/b&gt;  If there are multiple reviewing officers available for the period of APAR, the reviewing officer who held the office for more than 90 days and in service has only to be selected.&lt;br&gt;&lt;br&gt;  If there are multiple reviewing officers available for the period of APAR, and each reviewing officer held the office for more than 90 days, then the recent reviewing officer in service has to be selected for reviewing the APAR for that period.&lt;br&gt;&lt;br&gt;  If there are multiple reviewing officers, and no reviewing officer held the office for more than 90 days, then the APAR need not be reviewed and you have to select NO REVIEWING AUTHORITY.</t>
+  </si>
+  <si>
+    <t>Wrong APAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again Log in to this page with </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1720,39 +1586,9 @@
       <family val="1"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1812,17 +1648,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1838,7 +1674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1853,13 +1689,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2148,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,34 +2005,34 @@
     </row>
     <row r="2" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="132" x14ac:dyDescent="0.25">
@@ -2204,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="132" x14ac:dyDescent="0.25">
@@ -2212,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -2220,7 +2056,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -2228,55 +2064,55 @@
         <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2120,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,263 +2136,263 @@
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>130</v>
+        <v>157</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>130</v>
+        <v>191</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,23 +2400,23 @@
         <v>21</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,164 +2424,164 @@
         <v>5</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>2</v>
@@ -2753,7 +2589,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>0</v>
@@ -2761,7 +2597,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>0</v>
@@ -2769,15 +2605,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>1</v>
@@ -2785,114 +2621,114 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,47 +2736,47 @@
         <v>17</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,232 +2784,232 @@
         <v>6</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q116" s="15"/>
       <c r="R116" s="15"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q117" s="15"/>
       <c r="R117" s="15"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>15</v>
@@ -3181,74 +3017,74 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3264,87 +3100,87 @@
         <v>13</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3352,39 +3188,39 @@
         <v>14</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,47 +3228,47 @@
         <v>20</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3440,15 +3276,15 @@
         <v>11</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3487,27 +3323,27 @@
   <sheetData>
     <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot_responses.xlsx
+++ b/chatbot_responses.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVN MURTHY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10035"/>
   </bookViews>
@@ -19,8 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="245">
   <si>
     <t>Hi there! How can I assist you today?</t>
   </si>
@@ -482,9 +477,6 @@
     <t>Can I use my income tax mail id for SPARROW</t>
   </si>
   <si>
-    <t>Annual Performance Appraisal Report.  The self appraisal for APAR is to be submitted before 30th Apr.</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -495,9 +487,6 @@
   </si>
   <si>
     <t>SPARROW Mobile number is the one which is registered with SPARROW ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Basic Information form is to be filled by ORU manually with self signature and to be attested by DDO.  This DDO attested basic information form has to be handed over to concerned PAR Manager.   PAR Manager fills the Basic Information and e-signs in SPARROW portal.  Then the APAR is automatically shifted to "Inbox" in SPARROW portal of ORU for writing Self Appraisal. </t>
   </si>
   <si>
     <t>After your PAR Manager e-signs your PAR, log in to SPARROW,  go to "Inbox", click on "My PAR".  You will be directed to self appraisal page, write your ‘self appraisal’, click on "Send to Reporting Officer".</t>
@@ -1192,16 +1181,10 @@
     <t>Workflow has to be created by ORU him/herself by login to SPARROW portal. PAR Managers may be contacted in case of difficulty in creating workflow.</t>
   </si>
   <si>
-    <t>Deletion  of APAR workflow can be done by Primary Custodian. But deletion of NRC is to be done at HRD, CBDT New Delhi level only.  Hence, while creating NRC completeness and accuracy is necessary</t>
-  </si>
-  <si>
     <t>Your supervisory officer is your Reporting Officer.  For initiating APAR you have to work for more than 90 days under one Reporting Officer.  Whenever the reporting officer is changed due to ORU transfer, Reporting Officer transfer or ORU retirement or Reporting officer retirement the PAR has to be initiated for that period  (if the period is more than 90 days) within 15 days of such event.</t>
   </si>
   <si>
     <t>Correction of basic information can be done by Primary Custodian. However, while initiating APAR completeness and accuracy is necessary.</t>
-  </si>
-  <si>
-    <t>For the period less than 90 days  under any reporting officer, the ORU has to get their NRC initiated in sparrow portal</t>
   </si>
   <si>
     <t>Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;, password and OTP → log in to SPARROW/parichay with SPARROW id, password and OTP → select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable → select “User Assistance” → select “Create Self Workflow” → create workflow → chose Organisation Posted as CBDT IT AP&amp; Telangana → select period → select APAR/NRC as applicable → select “form type” → select “Action” → select “continue” → select correct reporting authority by search  option → In “service” column choose INCOME TAX (GZTD) or INCOME TAX REVENUE SERVICE (IT) as applicable → give input as name or employee code and click on “search” → select your reporting officer → choose reviewing officer in the same method → click “save” (do not press “save and next”) → you will see comment  Workflow has been created successfully  in a new window → fill manual basic information form, put your signature → get your DDO signature → hand over to your PAR Manager</t>
@@ -1293,9 +1276,6 @@
     <t>Form for appeals</t>
   </si>
   <si>
-    <t>Not able to login</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unable to log in </t>
   </si>
   <si>
@@ -1314,9 +1294,6 @@
     <t>How do I get my SPARROW ID</t>
   </si>
   <si>
-    <t>Why I am not able to log in</t>
-  </si>
-  <si>
     <t>Getting Login error what should I do</t>
   </si>
   <si>
@@ -1357,12 +1334,6 @@
   </si>
   <si>
     <t>How to create workflow by ORU</t>
-  </si>
-  <si>
-    <t>How to change SPARROW password</t>
-  </si>
-  <si>
-    <t>Reset password for SPARROW</t>
   </si>
   <si>
     <t>On or before 30th April</t>
@@ -1457,22 +1428,10 @@
     <t>1.Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt; with SPARROW ID, password and OTP and then  log in to SPARROW/Parichay with same SPARROW ID, password and newly generated OTP. &lt;br&gt;&lt;br&gt; 2.Select Income Tax (Gztd), Income Tax (Non-Gztd) or IRS (IT) as applicable. &lt;br&gt;&lt;br&gt;3. Select “workflow”, select “create/update”, search by employee name,  click on “create workflow”.&lt;br&gt;&lt;br&gt;4.  Select NRC in "Status" tab . &lt;br&gt;&lt;br&gt;5. After creating NRC workflow, Reporting Period from, Reporting Period to, Reporting Officer Name and Reporting Officer Designation have to be filled.  In the remarks column,  correct reason for requesting NRC is to be selected.  In the comments box, a descriptive reason for NRC is to be mentioned along with the office in which ORU is posted.   In the Reference upload,  the CTC copy/transfer order/leave application for more than 15 days etc of self or reporting officer where ever applicable are to be uploaded in PDF format (less than 3 MB size).&lt;br&gt;&lt;br&gt;6. Click on “Save as Draft”.  &lt;br&gt;&lt;br&gt;7.Click “send to Competent Authority”, then sign digitally by DSC or e-Hastakshar.</t>
   </si>
   <si>
-    <t>After filing IPR online in SPARROW portal, changes can be done before last date for filing of IPR i.e., 31 January.  After the last date no changes can be done. Procedure for changing the IPR before due date is same as fresh filing of IPR.</t>
-  </si>
-  <si>
     <t>Who needs a SPARROW id</t>
   </si>
   <si>
     <t>Dy Commissioner of Income Tax (HQrs) (Vigilance), Hyderabad is the Primary Custodian of APAR</t>
-  </si>
-  <si>
-    <t>For obtaining NIC email-id, the basic details of officer should be sent through respective Pr.CCIT(CCA) office to HRD. Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 email ID Official (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
-  </si>
-  <si>
-    <t>For obtaining NIC email-id, the basic details of ORU should be sent through their name based email ID to the DCIT (HQrs)(Vig). Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 Official email ID (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For writing APAR different forms have been prescribed for different duties assigned.  Such as Faceless, Jurisdictional, International Taxation, Audit, other than assessment duties, Administrative Officer/Office Superintendent, Private Secretary/Stenographer etc.  While initiating workflow, correct form is to be chosen. </t>
   </si>
   <si>
     <t xml:space="preserve">For writing APAR, different forms have been prescribed by HRD, CBDT as per the duties assigned  to the ORU.  For example Faceless, Jurisdictional, International Taxation, Audit, other than assessment duties, Administrative Officer/Office Superintendent, Private Secretary/Stenographer etc.  While initiating workflow, correct form is to be chosen by ORU. </t>
@@ -1548,14 +1507,38 @@
     <t>Wrong APAR</t>
   </si>
   <si>
-    <t xml:space="preserve">First Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again Log in to this page with </t>
+    <t>First Log in to &lt;a href="https://saccess.nic.in"&gt;https://saccess.nic.in&lt;/a&gt;  with SPARROW id, password and OTP.  Then the page of SPARROW/Parichay opens.  Again Log in to this "parichay" page with same user ID, password and nelwy generated OTP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A duly signed Basic Information form is to be filled by ORU manually and same is to be attested by DDO.  This DDO attested basic information form has to be handed over to concerned PAR Manager.   PAR Manager fills the Basic Information and e-signs in SPARROW portal.  Then the APAR is automatically shifted to "Inbox" in SPARROW portal of ORU for writing Self Appraisal. </t>
+  </si>
+  <si>
+    <t>After filing IPR online in SPARROW portal, changes can be done before last date for filing of IPR i.e., 31 January.  After the last date, no changes can be done. Procedure for changing the IPR before due date is same as filing a fresh IPR.</t>
+  </si>
+  <si>
+    <t>Annual Performance Appraisal Report.  The self appraisal for APAR is to be submitted before 30th Apr by ORU.</t>
+  </si>
+  <si>
+    <t>Deletion  of APAR workflow can be done by Primary Custodian. But deletion of NRC has to be done by HRD, CBDT New Delhi only.  Hence, while creating NRC, completeness and accuracy are necessary.</t>
+  </si>
+  <si>
+    <t>For obtaining NIC email-id, the basic details of officer should be sent through respective Primary Custodian office to HRD, CBDT New Delhi. Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 email ID Official (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
+  </si>
+  <si>
+    <t>For obtaining NIC email-id, the basic details of ORU should be sent through their name based email ID to their concerned DCIT (HQrs)(Vig). Details required for new email-id are: 1 Name 2 Gender 3 Designation 4 Region of posting 5 Mobile 6 Date of retirement (dd-mm-yyyy) 7 Date of birth (dd-mm-yyyy) 8 Official email ID (name based) 9 Employee code.  Newly created email-id and password are conveyed to the officer through his/her registered mobile number.</t>
+  </si>
+  <si>
+    <t>For the period less than 90 days  under any reporting officer, the ORU has to get their NRC initiated in sparrow portal.</t>
+  </si>
+  <si>
+    <t>How to change or reset SPARROW password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1974,28 +1957,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="B140" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="255.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2003,151 +1986,151 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="285">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="87">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="87">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="90">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
       <c r="A13" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60">
       <c r="A14" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="31.5">
       <c r="A15" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2155,535 +2138,535 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="B47" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45">
       <c r="A55" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
       <c r="A56" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30">
       <c r="A57" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
       <c r="A58" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
       <c r="A59" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
       <c r="A60" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
       <c r="A61" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45">
       <c r="A68" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45">
       <c r="A69" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45">
       <c r="A70" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45">
       <c r="A71" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30">
       <c r="A72" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
       <c r="A73" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
         <v>67</v>
       </c>
@@ -2691,7 +2674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
         <v>69</v>
       </c>
@@ -2699,199 +2682,199 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="63">
       <c r="A89" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="63">
       <c r="A90" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="7" t="s">
         <v>86</v>
       </c>
@@ -2899,7 +2882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114" s="7" t="s">
         <v>46</v>
       </c>
@@ -2907,384 +2890,358 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115" s="7" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q116" s="15"/>
       <c r="R116" s="15"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>186</v>
+    <row r="117" spans="1:18">
+      <c r="A117" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q117" s="15"/>
-      <c r="R117" s="15"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="18.75">
+      <c r="A121" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="18.75">
+      <c r="A122" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="18.75">
+      <c r="A123" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="90">
       <c r="A129" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="90">
       <c r="A130" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="90">
+      <c r="A131" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="90">
       <c r="A132" s="6" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="B132" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="285">
+      <c r="A138" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="285">
       <c r="A139" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>43</v>
+        <v>110</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30">
+      <c r="A141" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="6" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="90">
       <c r="A155" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>145</v>
+      <c r="B158" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3294,14 +3251,14 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B132" r:id="rId1" display="https://saccess.nic/"/>
+    <hyperlink ref="B129" r:id="rId1" display="https://saccess.nic/"/>
     <hyperlink ref="B87" r:id="rId2" display="https://saccess.nic/"/>
     <hyperlink ref="B88" r:id="rId3" display="https://saccess.nic/"/>
     <hyperlink ref="B89" r:id="rId4" display="https://saccess.nic/"/>
     <hyperlink ref="B90" r:id="rId5" display="https://saccess.nic/"/>
-    <hyperlink ref="B133" r:id="rId6" display="https://saccess.nic/"/>
-    <hyperlink ref="B134" r:id="rId7" display="https://saccess.nic/"/>
-    <hyperlink ref="B135" r:id="rId8" display="https://saccess.nic/"/>
+    <hyperlink ref="B130" r:id="rId6" display="https://saccess.nic/"/>
+    <hyperlink ref="B131" r:id="rId7" display="https://saccess.nic/"/>
+    <hyperlink ref="B132" r:id="rId8" display="https://saccess.nic/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -3309,41 +3266,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:A16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="243.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="60">
       <c r="A6" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="72">
       <c r="A7" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="45">
       <c r="A11" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30">
       <c r="A13" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="78.75">
       <c r="A16" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
